--- a/Resources/MotorPowerCubicFunction.xlsx
+++ b/Resources/MotorPowerCubicFunction.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Platypi\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Platypi\eclipse-workspace\Java-2017-Training\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -281,6 +281,1895 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.0223908054492556E-2"/>
+          <c:y val="0.10384517077222914"/>
+          <c:w val="0.92524427245694341"/>
+          <c:h val="0.80025236605602001"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$J$11:$J$254</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="244"/>
+                <c:pt idx="0">
+                  <c:v>-0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.13</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.15000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.16000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.17000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.18000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.19000000000000006</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.20000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.21000000000000008</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.22000000000000008</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.23000000000000009</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.2400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.25000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.26000000000000012</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.27000000000000013</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.28000000000000014</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.29000000000000015</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.30000000000000016</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.31000000000000016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.32000000000000017</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.33000000000000018</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-0.34000000000000019</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-0.3500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-0.36000000000000021</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-0.37000000000000022</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-0.38000000000000023</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-0.39000000000000024</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-0.40000000000000024</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-0.41000000000000025</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-0.42000000000000026</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-0.43000000000000027</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-0.44000000000000028</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-0.45000000000000029</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-0.4600000000000003</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-0.47000000000000031</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-0.48000000000000032</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-0.49000000000000032</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-0.50000000000000033</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-0.51000000000000034</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-0.52000000000000035</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-0.53000000000000036</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-0.54000000000000037</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-0.55000000000000038</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-0.56000000000000039</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-0.5700000000000004</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-0.5800000000000004</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-0.59000000000000041</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-0.60000000000000042</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-0.61000000000000043</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-0.62000000000000044</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-0.63000000000000045</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-0.64000000000000046</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-0.65000000000000047</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-0.66000000000000048</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-0.67000000000000048</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-0.68000000000000049</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-0.6900000000000005</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-0.70000000000000051</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-0.71000000000000052</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-0.72000000000000053</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-0.73000000000000054</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-0.74000000000000055</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-0.75000000000000056</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-0.76000000000000056</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-0.77000000000000057</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-0.78000000000000058</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-0.79000000000000059</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-0.8000000000000006</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>-0.81000000000000061</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-0.82000000000000062</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-0.83000000000000063</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-0.84000000000000064</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-0.85000000000000064</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>-0.86000000000000065</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>-0.87000000000000066</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>-0.88000000000000067</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-0.89000000000000068</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>-0.90000000000000069</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>-0.9100000000000007</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>-0.92000000000000071</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>-0.93000000000000071</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>-0.94000000000000072</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>-0.95000000000000073</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>-0.96000000000000074</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>-0.97000000000000075</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>-0.98000000000000076</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>-0.99000000000000077</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>-1.0000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>-1.0100000000000007</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>-1.0200000000000007</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>-1.0300000000000007</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>-1.0400000000000007</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>-1.0500000000000007</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>-1.0600000000000007</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>-1.0700000000000007</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>-1.0800000000000007</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>-1.0900000000000007</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>-1.1000000000000008</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>-1.1100000000000008</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>-1.1200000000000008</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>-1.1300000000000008</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>-1.1400000000000008</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>-1.1500000000000008</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>-1.1600000000000008</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>-1.1700000000000008</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>-1.1800000000000008</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>-1.1900000000000008</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>-1.2000000000000008</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>-1.2100000000000009</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>-1.2200000000000009</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>-1.2300000000000009</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>-1.2400000000000009</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>-1.2500000000000009</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>-1.2600000000000009</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>-1.2700000000000009</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>-1.2800000000000009</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>-1.2900000000000009</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>-1.3000000000000009</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>-1.3100000000000009</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>-1.320000000000001</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>-1.330000000000001</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>-1.340000000000001</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>-1.350000000000001</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>-1.360000000000001</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>-1.370000000000001</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>-1.380000000000001</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>-1.390000000000001</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>-1.400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>-1.410000000000001</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>-1.420000000000001</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>-1.430000000000001</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>-1.4400000000000011</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>-1.4500000000000011</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>-1.4600000000000011</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>-1.4700000000000011</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>-1.4800000000000011</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>-1.4900000000000011</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>-1.5000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>-1.5100000000000011</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>-1.5200000000000011</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>-1.5300000000000011</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>-1.5400000000000011</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>-1.5500000000000012</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>-1.5600000000000012</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>-1.5700000000000012</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>-1.5800000000000012</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>-1.5900000000000012</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>-1.6000000000000012</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>-1.6100000000000012</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>-1.6200000000000012</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>-1.6300000000000012</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>-1.6400000000000012</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>-1.6500000000000012</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>-1.6600000000000013</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>-1.6700000000000013</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>-1.6800000000000013</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>-1.6900000000000013</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>-1.7000000000000013</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>-1.7100000000000013</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>-1.7200000000000013</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>-1.7300000000000013</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>-1.7400000000000013</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>-1.7500000000000013</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>-1.7600000000000013</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>-1.7700000000000014</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>-1.7800000000000014</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>-1.7900000000000014</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>-1.8000000000000014</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>-1.8100000000000014</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>-1.8200000000000014</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>-1.8300000000000014</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>-1.8400000000000014</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>-1.8500000000000014</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>-1.8600000000000014</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>-1.8700000000000014</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>-1.8800000000000014</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>-1.8900000000000015</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>-1.9000000000000015</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>-1.9100000000000015</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>-1.9200000000000015</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>-1.9300000000000015</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>-1.9400000000000015</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>-1.9500000000000015</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>-1.9600000000000015</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>-1.9700000000000015</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>-1.9800000000000015</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>-1.9900000000000015</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>-2.0000000000000013</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>-2.0100000000000011</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>-2.0200000000000009</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>-2.0300000000000007</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>-2.0400000000000005</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>-2.0500000000000003</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>-2.06</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>-2.0699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>-2.0799999999999996</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>-2.0899999999999994</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>-2.0999999999999992</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>-2.109999999999999</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>-2.1199999999999988</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>-2.1299999999999986</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>-2.1399999999999983</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>-2.1499999999999981</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>-2.1599999999999979</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>-2.1699999999999977</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>-2.1799999999999975</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>-2.1899999999999973</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>-2.1999999999999971</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>-2.2099999999999969</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>-2.2199999999999966</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>-2.2299999999999964</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>-2.2399999999999962</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>-2.249999999999996</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>-2.2599999999999958</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>-2.2699999999999956</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>-2.2799999999999954</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>-2.2899999999999952</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>-2.2999999999999949</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>-2.3099999999999947</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>-2.3199999999999945</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>-2.3299999999999943</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>-2.3399999999999941</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>-2.3499999999999939</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>-2.3599999999999937</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>-2.3699999999999934</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>-2.3799999999999932</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>-2.389999999999993</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>-2.3999999999999928</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>-2.4099999999999926</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>-2.4199999999999924</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>-2.4299999999999922</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>-2.439999999999992</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>-2.4499999999999917</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>-2.4599999999999915</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>-2.4699999999999913</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>-2.4799999999999911</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>-2.4899999999999909</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>-2.4999999999999907</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>-2.5099999999999905</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>-2.5199999999999902</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>-2.52999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$K$11:$K$254</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="244"/>
+                <c:pt idx="0">
+                  <c:v>-0.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.41955884773662544</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.43824855967078186</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.45608888888888888</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.47309958847736627</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.4893004115226337</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.50471111111111111</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.51935144032921809</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.53324115226337454</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.5464</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.55884773662551446</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.57060411522633747</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.58168888888888892</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.59212181069958847</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.60192263374485599</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.61111111111111116</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.61970699588477374</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.62773004115226338</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.6352000000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.64213662551440331</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.64855967078189303</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.6544888888888889</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.6599440329218107</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.6649448559670782</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-0.66951111111111117</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-0.67366255144032927</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-0.67741893004115228</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-0.68080000000000007</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-0.6838255144032922</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-0.68651522633744855</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-0.68888888888888888</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-0.69096625514403287</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-0.69276707818930039</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-0.6943111111111111</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-0.69561810699588478</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-0.69670781893004108</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-0.6976</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-0.69831440329218109</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-0.69887078189300411</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-0.69928888888888885</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-0.69958847736625507</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-0.69978930041152254</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-0.69991111111111104</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-0.69997366255144033</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-0.69999670781892998</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-0.7</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-0.70000329218106994</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-0.70002633744855958</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-0.70008888888888887</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-0.70021069958847737</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-0.70041152263374484</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-0.70071111111111106</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-0.70112921810699591</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-0.70168559670781894</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-0.70240000000000002</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-0.70329218106995883</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-0.70438189300411524</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-0.70568888888888892</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-0.70723292181069963</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-0.70903374485596715</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-0.71111111111111114</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-0.71348477366255147</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-0.71617448559670793</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-0.71920000000000006</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-0.72258106995884785</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-0.72633744855967097</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-0.73048888888888908</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-0.73505514403292205</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-0.74005596707818955</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-0.74551111111111135</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-0.75144032921810733</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>-0.75786337448559704</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-0.76480000000000037</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-0.77226995884773697</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-0.78029300411522673</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-0.78888888888888931</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>-0.79807736625514458</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>-0.80787818930041211</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>-0.81831111111111166</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-0.82939588477366322</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>-0.84115226337448634</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>-0.85360000000000069</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>-0.86675884773662637</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>-0.8806485596707827</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>-0.8952888888888898</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>-0.91069958847736721</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>-0.9269004115226348</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>-0.94391111111111226</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>-0.96175144032921933</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>-0.98044115226337569</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>-1.0000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>-1.0204477366255156</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>-1.0418041152263386</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>-1.0640888888888902</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>-1.0873218106995899</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>-1.1115226337448574</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>-1.1367111111111126</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>-1.1629069958847751</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>-1.1901300411522651</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>-1.2184000000000017</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>-1.2477366255144051</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>-1.278159670781895</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>-1.3096888888888909</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>-1.342344032921813</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>-1.3761448559670804</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>-1.4111111111111136</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>-1.4472625514403317</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>-1.484618930041155</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>-1.5232000000000028</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>-1.5630255144032952</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>-1.6041152263374516</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>-1.646488888888892</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>-1.6901662551440362</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>-1.7351670781893038</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>-1.7815111111111146</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>-1.8292181069958884</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>-1.8783078189300451</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>-1.9288000000000038</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>-1.9807144032921851</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>-2.0340707818930084</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>-2.088888888888893</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>-2.1451884773662595</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>-2.2029893004115273</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>-2.2623111111111158</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>-2.3231736625514454</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>-2.3855967078189355</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>-2.4496000000000056</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>-2.5152032921810754</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>-2.5824263374485659</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>-2.651288888888895</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>-2.7218106995884837</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>-2.7940115226337516</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>-2.8679111111111171</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>-2.9435292181070025</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>-3.0208855967078261</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>-3.1000000000000068</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>-3.1808921810699662</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>-3.2635818930041225</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>-3.3480888888888973</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>-3.4344329218107079</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>-3.5226337448559759</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>-3.6127111111111194</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>-3.7046847736625601</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>-3.798574485596717</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>-3.8944000000000099</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>-3.9921810699588578</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>-4.0919374485596807</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>-4.1936888888888992</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>-4.2974551440329325</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>-4.4032559670781994</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>-4.5111111111111226</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>-4.6210403292181184</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>-4.7330633744856083</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>-4.8472000000000124</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>-4.9634699588477487</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>-5.0818930041152397</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>-5.2024888888889018</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>-5.3252773662551567</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>-5.450278189300426</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>-5.5775111111111251</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>-5.7069958847736775</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>-5.8387522633745013</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>-5.9728000000000145</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>-6.1091588477366416</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>-6.247848559670798</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>-6.3888888888889053</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>-6.5322995884773833</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>-6.6781004115226512</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>-6.8263111111111288</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>-6.9769514403292359</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>-7.1300411522633924</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>-7.2856000000000183</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>-7.4436477366255334</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>-7.6042041152263566</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>-7.7672888888889098</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>-7.9329218106996082</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>-8.1011226337448772</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>-8.2719111111111321</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>-8.4453069958847937</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>-8.6213300411522855</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>-8.8000000000000203</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>-8.9813366255144249</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>-9.1653596707819158</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>-9.3520888888889129</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>-9.5415440329218342</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>-9.7337448559671031</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>-9.9287111111111361</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>-10.126462551440355</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>-10.327018930041177</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>-10.530400000000027</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>-10.736625514403313</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>-10.945715226337468</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>-11.157688888888902</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>-11.372566255144044</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>-11.590367078189304</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>-11.811111111111112</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>-12.03481810699588</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>-12.261507818930033</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>-12.491199999999985</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>-12.723914403292161</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>-12.959670781892978</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>-13.198488888888859</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>-13.44038847736622</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>-13.685389300411481</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>-13.933511111111061</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>-14.184773662551386</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>-14.439196707818869</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>-14.696799999999934</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>-14.957603292180998</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>-15.22162633744848</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>-15.488888888888802</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>-15.759410699588384</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>-16.033211522633646</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>-16.310311111111005</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>-16.590729218106883</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>-16.874485596707697</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>-17.161599999999872</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>-17.452092181069823</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>-17.745981893003968</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>-18.043288888888735</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>-18.344032921810538</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>-18.648233744855798</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>-18.955911111110932</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>-19.267084773662365</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>-19.581774485596512</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>-19.899999999999793</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>-20.221781069958631</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>-20.547137448559447</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>-20.876088888888656</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>-21.208655144032679</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>-21.544855967077936</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>-21.884711111110846</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>-22.228240329217833</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>-22.575463374485313</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>-22.926399999999706</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>-23.281069958847432</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>-23.639493004114907</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>-24.001688888888562</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>-24.367677366254807</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>-24.737478189300063</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>-25.111111111110748</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>-25.488595884773289</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>-25.869952263374099</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>-26.255199999999601</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="190429584"/>
+        <c:axId val="190428464"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="190429584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0"/>
+          <c:min val="-1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Joystick Value</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="190428464"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="190428464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0"/>
+          <c:min val="-2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Motor</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Power (%)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="190429584"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Motor</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Power vs. Joystick Value</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -1792,11 +3681,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="212219296"/>
-        <c:axId val="212217056"/>
+        <c:axId val="190186160"/>
+        <c:axId val="190188400"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="212219296"/>
+        <c:axId val="190186160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1910,12 +3799,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="212217056"/>
+        <c:crossAx val="190188400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="212217056"/>
+        <c:axId val="190188400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2"/>
@@ -2033,7 +3922,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="212219296"/>
+        <c:crossAx val="190186160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2083,6 +3972,46 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2638,20 +4567,568 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>276224</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>138111</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>71438</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>304799</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>161924</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>314326</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>130969</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>359568</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>7142</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>388142</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>30955</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2664,7 +5141,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2938,8 +5415,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L254"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Z37" sqref="Z37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3096,6 +5573,14 @@
         <f>$K$4*(H11-$F$5)^3+$L$4</f>
         <v>0.39999999999999991</v>
       </c>
+      <c r="J11">
+        <f>-0.1</f>
+        <v>-0.1</v>
+      </c>
+      <c r="K11">
+        <f>-D4</f>
+        <v>-0.4</v>
+      </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="H12">
@@ -3106,6 +5591,14 @@
         <f t="shared" ref="I12:I75" si="0">$K$4*(H12-$F$5)^3+$L$4</f>
         <v>0.41955884773662544</v>
       </c>
+      <c r="J12">
+        <f>J11-0.01</f>
+        <v>-0.11</v>
+      </c>
+      <c r="K12">
+        <f>-$K$4*(H12-$F$5)^3-$L$4</f>
+        <v>-0.41955884773662544</v>
+      </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="E13" t="s">
@@ -3119,6 +5612,14 @@
         <f t="shared" si="0"/>
         <v>0.43824855967078186</v>
       </c>
+      <c r="J13">
+        <f t="shared" ref="J13:J76" si="2">J12-0.01</f>
+        <v>-0.12</v>
+      </c>
+      <c r="K13">
+        <f t="shared" ref="K13:K76" si="3">-$K$4*(H13-$F$5)^3-$L$4</f>
+        <v>-0.43824855967078186</v>
+      </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="E14" t="s">
@@ -3135,6 +5636,14 @@
         <f t="shared" si="0"/>
         <v>0.45608888888888888</v>
       </c>
+      <c r="J14">
+        <f t="shared" si="2"/>
+        <v>-0.13</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="3"/>
+        <v>-0.45608888888888888</v>
+      </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="E15">
@@ -3151,6 +5660,14 @@
       <c r="I15">
         <f t="shared" si="0"/>
         <v>0.47309958847736627</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="2"/>
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="3"/>
+        <v>-0.47309958847736627</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
@@ -3170,8 +5687,16 @@
         <f t="shared" si="0"/>
         <v>0.4893004115226337</v>
       </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J16">
+        <f t="shared" si="2"/>
+        <v>-0.15000000000000002</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="3"/>
+        <v>-0.4893004115226337</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="E17">
         <f>F5</f>
         <v>0.55000000000000004</v>
@@ -3188,8 +5713,16 @@
         <f t="shared" si="0"/>
         <v>0.50471111111111111</v>
       </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J17">
+        <f t="shared" si="2"/>
+        <v>-0.16000000000000003</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="3"/>
+        <v>-0.50471111111111111</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="H18">
         <f t="shared" si="1"/>
         <v>0.17000000000000004</v>
@@ -3198,8 +5731,16 @@
         <f t="shared" si="0"/>
         <v>0.51935144032921809</v>
       </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J18">
+        <f t="shared" si="2"/>
+        <v>-0.17000000000000004</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="3"/>
+        <v>-0.51935144032921809</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>26</v>
       </c>
@@ -3211,8 +5752,16 @@
         <f t="shared" si="0"/>
         <v>0.53324115226337454</v>
       </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J19">
+        <f t="shared" si="2"/>
+        <v>-0.18000000000000005</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="3"/>
+        <v>-0.53324115226337454</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>27</v>
       </c>
@@ -3227,8 +5776,16 @@
         <f t="shared" si="0"/>
         <v>0.5464</v>
       </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J20">
+        <f t="shared" si="2"/>
+        <v>-0.19000000000000006</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="3"/>
+        <v>-0.5464</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="H21">
         <f t="shared" si="1"/>
         <v>0.20000000000000007</v>
@@ -3237,8 +5794,16 @@
         <f t="shared" si="0"/>
         <v>0.55884773662551446</v>
       </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J21">
+        <f t="shared" si="2"/>
+        <v>-0.20000000000000007</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="3"/>
+        <v>-0.55884773662551446</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="H22">
         <f t="shared" si="1"/>
         <v>0.21000000000000008</v>
@@ -3247,8 +5812,16 @@
         <f t="shared" si="0"/>
         <v>0.57060411522633747</v>
       </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J22">
+        <f t="shared" si="2"/>
+        <v>-0.21000000000000008</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="3"/>
+        <v>-0.57060411522633747</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
         <v>25</v>
       </c>
@@ -3263,8 +5836,16 @@
         <f t="shared" si="0"/>
         <v>0.58168888888888892</v>
       </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J23">
+        <f t="shared" si="2"/>
+        <v>-0.22000000000000008</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="3"/>
+        <v>-0.58168888888888892</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
       <c r="E24" t="s">
         <v>24</v>
       </c>
@@ -3276,8 +5857,16 @@
         <f t="shared" si="0"/>
         <v>0.59212181069958847</v>
       </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J24">
+        <f t="shared" si="2"/>
+        <v>-0.23000000000000009</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="3"/>
+        <v>-0.59212181069958847</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="H25">
         <f t="shared" si="1"/>
         <v>0.2400000000000001</v>
@@ -3286,8 +5875,16 @@
         <f t="shared" si="0"/>
         <v>0.60192263374485599</v>
       </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J25">
+        <f t="shared" si="2"/>
+        <v>-0.2400000000000001</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="3"/>
+        <v>-0.60192263374485599</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="H26">
         <f t="shared" si="1"/>
         <v>0.25000000000000011</v>
@@ -3296,8 +5893,16 @@
         <f t="shared" si="0"/>
         <v>0.61111111111111116</v>
       </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J26">
+        <f t="shared" si="2"/>
+        <v>-0.25000000000000011</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="3"/>
+        <v>-0.61111111111111116</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="H27">
         <f t="shared" si="1"/>
         <v>0.26000000000000012</v>
@@ -3306,8 +5911,16 @@
         <f t="shared" si="0"/>
         <v>0.61970699588477374</v>
       </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J27">
+        <f t="shared" si="2"/>
+        <v>-0.26000000000000012</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="3"/>
+        <v>-0.61970699588477374</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="H28">
         <f t="shared" si="1"/>
         <v>0.27000000000000013</v>
@@ -3316,8 +5929,16 @@
         <f t="shared" si="0"/>
         <v>0.62773004115226338</v>
       </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J28">
+        <f t="shared" si="2"/>
+        <v>-0.27000000000000013</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="3"/>
+        <v>-0.62773004115226338</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="H29">
         <f t="shared" si="1"/>
         <v>0.28000000000000014</v>
@@ -3326,8 +5947,16 @@
         <f t="shared" si="0"/>
         <v>0.6352000000000001</v>
       </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J29">
+        <f t="shared" si="2"/>
+        <v>-0.28000000000000014</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="3"/>
+        <v>-0.6352000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="H30">
         <f t="shared" si="1"/>
         <v>0.29000000000000015</v>
@@ -3336,8 +5965,16 @@
         <f t="shared" si="0"/>
         <v>0.64213662551440331</v>
       </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J30">
+        <f t="shared" si="2"/>
+        <v>-0.29000000000000015</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="3"/>
+        <v>-0.64213662551440331</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="H31">
         <f t="shared" si="1"/>
         <v>0.30000000000000016</v>
@@ -3346,8 +5983,16 @@
         <f t="shared" si="0"/>
         <v>0.64855967078189303</v>
       </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J31">
+        <f t="shared" si="2"/>
+        <v>-0.30000000000000016</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="3"/>
+        <v>-0.64855967078189303</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
       <c r="H32">
         <f t="shared" si="1"/>
         <v>0.31000000000000016</v>
@@ -3356,8 +6001,16 @@
         <f t="shared" si="0"/>
         <v>0.6544888888888889</v>
       </c>
-    </row>
-    <row r="33" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J32">
+        <f t="shared" si="2"/>
+        <v>-0.31000000000000016</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="3"/>
+        <v>-0.6544888888888889</v>
+      </c>
+    </row>
+    <row r="33" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H33">
         <f t="shared" si="1"/>
         <v>0.32000000000000017</v>
@@ -3366,8 +6019,16 @@
         <f t="shared" si="0"/>
         <v>0.6599440329218107</v>
       </c>
-    </row>
-    <row r="34" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J33">
+        <f t="shared" si="2"/>
+        <v>-0.32000000000000017</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="3"/>
+        <v>-0.6599440329218107</v>
+      </c>
+    </row>
+    <row r="34" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H34">
         <f t="shared" si="1"/>
         <v>0.33000000000000018</v>
@@ -3376,8 +6037,16 @@
         <f t="shared" si="0"/>
         <v>0.6649448559670782</v>
       </c>
-    </row>
-    <row r="35" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J34">
+        <f t="shared" si="2"/>
+        <v>-0.33000000000000018</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="3"/>
+        <v>-0.6649448559670782</v>
+      </c>
+    </row>
+    <row r="35" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H35">
         <f t="shared" si="1"/>
         <v>0.34000000000000019</v>
@@ -3386,8 +6055,16 @@
         <f t="shared" si="0"/>
         <v>0.66951111111111117</v>
       </c>
-    </row>
-    <row r="36" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J35">
+        <f t="shared" si="2"/>
+        <v>-0.34000000000000019</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="3"/>
+        <v>-0.66951111111111117</v>
+      </c>
+    </row>
+    <row r="36" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H36">
         <f t="shared" si="1"/>
         <v>0.3500000000000002</v>
@@ -3396,8 +6073,16 @@
         <f t="shared" si="0"/>
         <v>0.67366255144032927</v>
       </c>
-    </row>
-    <row r="37" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J36">
+        <f t="shared" si="2"/>
+        <v>-0.3500000000000002</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="3"/>
+        <v>-0.67366255144032927</v>
+      </c>
+    </row>
+    <row r="37" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H37">
         <f t="shared" si="1"/>
         <v>0.36000000000000021</v>
@@ -3406,8 +6091,16 @@
         <f t="shared" si="0"/>
         <v>0.67741893004115228</v>
       </c>
-    </row>
-    <row r="38" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J37">
+        <f t="shared" si="2"/>
+        <v>-0.36000000000000021</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="3"/>
+        <v>-0.67741893004115228</v>
+      </c>
+    </row>
+    <row r="38" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H38">
         <f t="shared" si="1"/>
         <v>0.37000000000000022</v>
@@ -3416,8 +6109,16 @@
         <f t="shared" si="0"/>
         <v>0.68080000000000007</v>
       </c>
-    </row>
-    <row r="39" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J38">
+        <f t="shared" si="2"/>
+        <v>-0.37000000000000022</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="3"/>
+        <v>-0.68080000000000007</v>
+      </c>
+    </row>
+    <row r="39" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H39">
         <f t="shared" si="1"/>
         <v>0.38000000000000023</v>
@@ -3426,8 +6127,16 @@
         <f t="shared" si="0"/>
         <v>0.6838255144032922</v>
       </c>
-    </row>
-    <row r="40" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J39">
+        <f t="shared" si="2"/>
+        <v>-0.38000000000000023</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="3"/>
+        <v>-0.6838255144032922</v>
+      </c>
+    </row>
+    <row r="40" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H40">
         <f t="shared" si="1"/>
         <v>0.39000000000000024</v>
@@ -3436,8 +6145,16 @@
         <f t="shared" si="0"/>
         <v>0.68651522633744855</v>
       </c>
-    </row>
-    <row r="41" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J40">
+        <f t="shared" si="2"/>
+        <v>-0.39000000000000024</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="3"/>
+        <v>-0.68651522633744855</v>
+      </c>
+    </row>
+    <row r="41" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H41">
         <f t="shared" si="1"/>
         <v>0.40000000000000024</v>
@@ -3446,8 +6163,16 @@
         <f t="shared" si="0"/>
         <v>0.68888888888888888</v>
       </c>
-    </row>
-    <row r="42" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J41">
+        <f t="shared" si="2"/>
+        <v>-0.40000000000000024</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="3"/>
+        <v>-0.68888888888888888</v>
+      </c>
+    </row>
+    <row r="42" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H42">
         <f t="shared" si="1"/>
         <v>0.41000000000000025</v>
@@ -3456,8 +6181,16 @@
         <f t="shared" si="0"/>
         <v>0.69096625514403287</v>
       </c>
-    </row>
-    <row r="43" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J42">
+        <f t="shared" si="2"/>
+        <v>-0.41000000000000025</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="3"/>
+        <v>-0.69096625514403287</v>
+      </c>
+    </row>
+    <row r="43" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H43">
         <f t="shared" si="1"/>
         <v>0.42000000000000026</v>
@@ -3466,8 +6199,16 @@
         <f t="shared" si="0"/>
         <v>0.69276707818930039</v>
       </c>
-    </row>
-    <row r="44" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J43">
+        <f t="shared" si="2"/>
+        <v>-0.42000000000000026</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="3"/>
+        <v>-0.69276707818930039</v>
+      </c>
+    </row>
+    <row r="44" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H44">
         <f t="shared" si="1"/>
         <v>0.43000000000000027</v>
@@ -3476,8 +6217,16 @@
         <f t="shared" si="0"/>
         <v>0.6943111111111111</v>
       </c>
-    </row>
-    <row r="45" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J44">
+        <f t="shared" si="2"/>
+        <v>-0.43000000000000027</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="3"/>
+        <v>-0.6943111111111111</v>
+      </c>
+    </row>
+    <row r="45" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H45">
         <f t="shared" si="1"/>
         <v>0.44000000000000028</v>
@@ -3486,8 +6235,16 @@
         <f t="shared" si="0"/>
         <v>0.69561810699588478</v>
       </c>
-    </row>
-    <row r="46" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J45">
+        <f t="shared" si="2"/>
+        <v>-0.44000000000000028</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="3"/>
+        <v>-0.69561810699588478</v>
+      </c>
+    </row>
+    <row r="46" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H46">
         <f t="shared" si="1"/>
         <v>0.45000000000000029</v>
@@ -3496,8 +6253,16 @@
         <f t="shared" si="0"/>
         <v>0.69670781893004108</v>
       </c>
-    </row>
-    <row r="47" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J46">
+        <f t="shared" si="2"/>
+        <v>-0.45000000000000029</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="3"/>
+        <v>-0.69670781893004108</v>
+      </c>
+    </row>
+    <row r="47" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H47">
         <f t="shared" si="1"/>
         <v>0.4600000000000003</v>
@@ -3506,8 +6271,16 @@
         <f t="shared" si="0"/>
         <v>0.6976</v>
       </c>
-    </row>
-    <row r="48" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J47">
+        <f t="shared" si="2"/>
+        <v>-0.4600000000000003</v>
+      </c>
+      <c r="K47">
+        <f t="shared" si="3"/>
+        <v>-0.6976</v>
+      </c>
+    </row>
+    <row r="48" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H48">
         <f t="shared" si="1"/>
         <v>0.47000000000000031</v>
@@ -3516,8 +6289,16 @@
         <f t="shared" si="0"/>
         <v>0.69831440329218109</v>
       </c>
-    </row>
-    <row r="49" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J48">
+        <f t="shared" si="2"/>
+        <v>-0.47000000000000031</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="3"/>
+        <v>-0.69831440329218109</v>
+      </c>
+    </row>
+    <row r="49" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H49">
         <f t="shared" si="1"/>
         <v>0.48000000000000032</v>
@@ -3526,8 +6307,16 @@
         <f t="shared" si="0"/>
         <v>0.69887078189300411</v>
       </c>
-    </row>
-    <row r="50" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J49">
+        <f t="shared" si="2"/>
+        <v>-0.48000000000000032</v>
+      </c>
+      <c r="K49">
+        <f t="shared" si="3"/>
+        <v>-0.69887078189300411</v>
+      </c>
+    </row>
+    <row r="50" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H50">
         <f t="shared" si="1"/>
         <v>0.49000000000000032</v>
@@ -3536,8 +6325,16 @@
         <f t="shared" si="0"/>
         <v>0.69928888888888885</v>
       </c>
-    </row>
-    <row r="51" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J50">
+        <f t="shared" si="2"/>
+        <v>-0.49000000000000032</v>
+      </c>
+      <c r="K50">
+        <f t="shared" si="3"/>
+        <v>-0.69928888888888885</v>
+      </c>
+    </row>
+    <row r="51" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H51">
         <f t="shared" si="1"/>
         <v>0.50000000000000033</v>
@@ -3546,8 +6343,16 @@
         <f t="shared" si="0"/>
         <v>0.69958847736625507</v>
       </c>
-    </row>
-    <row r="52" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J51">
+        <f t="shared" si="2"/>
+        <v>-0.50000000000000033</v>
+      </c>
+      <c r="K51">
+        <f t="shared" si="3"/>
+        <v>-0.69958847736625507</v>
+      </c>
+    </row>
+    <row r="52" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H52">
         <f t="shared" si="1"/>
         <v>0.51000000000000034</v>
@@ -3556,8 +6361,16 @@
         <f t="shared" si="0"/>
         <v>0.69978930041152254</v>
       </c>
-    </row>
-    <row r="53" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J52">
+        <f t="shared" si="2"/>
+        <v>-0.51000000000000034</v>
+      </c>
+      <c r="K52">
+        <f t="shared" si="3"/>
+        <v>-0.69978930041152254</v>
+      </c>
+    </row>
+    <row r="53" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H53">
         <f t="shared" si="1"/>
         <v>0.52000000000000035</v>
@@ -3566,8 +6379,16 @@
         <f t="shared" si="0"/>
         <v>0.69991111111111104</v>
       </c>
-    </row>
-    <row r="54" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J53">
+        <f t="shared" si="2"/>
+        <v>-0.52000000000000035</v>
+      </c>
+      <c r="K53">
+        <f t="shared" si="3"/>
+        <v>-0.69991111111111104</v>
+      </c>
+    </row>
+    <row r="54" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H54">
         <f t="shared" si="1"/>
         <v>0.53000000000000036</v>
@@ -3576,8 +6397,16 @@
         <f t="shared" si="0"/>
         <v>0.69997366255144033</v>
       </c>
-    </row>
-    <row r="55" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J54">
+        <f t="shared" si="2"/>
+        <v>-0.53000000000000036</v>
+      </c>
+      <c r="K54">
+        <f t="shared" si="3"/>
+        <v>-0.69997366255144033</v>
+      </c>
+    </row>
+    <row r="55" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H55">
         <f t="shared" si="1"/>
         <v>0.54000000000000037</v>
@@ -3586,8 +6415,16 @@
         <f t="shared" si="0"/>
         <v>0.69999670781892998</v>
       </c>
-    </row>
-    <row r="56" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J55">
+        <f t="shared" si="2"/>
+        <v>-0.54000000000000037</v>
+      </c>
+      <c r="K55">
+        <f t="shared" si="3"/>
+        <v>-0.69999670781892998</v>
+      </c>
+    </row>
+    <row r="56" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H56">
         <f t="shared" si="1"/>
         <v>0.55000000000000038</v>
@@ -3596,8 +6433,16 @@
         <f t="shared" si="0"/>
         <v>0.7</v>
       </c>
-    </row>
-    <row r="57" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J56">
+        <f t="shared" si="2"/>
+        <v>-0.55000000000000038</v>
+      </c>
+      <c r="K56">
+        <f t="shared" si="3"/>
+        <v>-0.7</v>
+      </c>
+    </row>
+    <row r="57" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H57">
         <f t="shared" si="1"/>
         <v>0.56000000000000039</v>
@@ -3606,8 +6451,16 @@
         <f t="shared" si="0"/>
         <v>0.70000329218106994</v>
       </c>
-    </row>
-    <row r="58" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J57">
+        <f t="shared" si="2"/>
+        <v>-0.56000000000000039</v>
+      </c>
+      <c r="K57">
+        <f t="shared" si="3"/>
+        <v>-0.70000329218106994</v>
+      </c>
+    </row>
+    <row r="58" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H58">
         <f t="shared" si="1"/>
         <v>0.5700000000000004</v>
@@ -3616,8 +6469,16 @@
         <f t="shared" si="0"/>
         <v>0.70002633744855958</v>
       </c>
-    </row>
-    <row r="59" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J58">
+        <f t="shared" si="2"/>
+        <v>-0.5700000000000004</v>
+      </c>
+      <c r="K58">
+        <f t="shared" si="3"/>
+        <v>-0.70002633744855958</v>
+      </c>
+    </row>
+    <row r="59" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H59">
         <f t="shared" si="1"/>
         <v>0.5800000000000004</v>
@@ -3626,8 +6487,16 @@
         <f t="shared" si="0"/>
         <v>0.70008888888888887</v>
       </c>
-    </row>
-    <row r="60" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J59">
+        <f t="shared" si="2"/>
+        <v>-0.5800000000000004</v>
+      </c>
+      <c r="K59">
+        <f t="shared" si="3"/>
+        <v>-0.70008888888888887</v>
+      </c>
+    </row>
+    <row r="60" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H60">
         <f t="shared" si="1"/>
         <v>0.59000000000000041</v>
@@ -3636,8 +6505,16 @@
         <f t="shared" si="0"/>
         <v>0.70021069958847737</v>
       </c>
-    </row>
-    <row r="61" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J60">
+        <f t="shared" si="2"/>
+        <v>-0.59000000000000041</v>
+      </c>
+      <c r="K60">
+        <f t="shared" si="3"/>
+        <v>-0.70021069958847737</v>
+      </c>
+    </row>
+    <row r="61" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H61">
         <f t="shared" si="1"/>
         <v>0.60000000000000042</v>
@@ -3646,8 +6523,16 @@
         <f t="shared" si="0"/>
         <v>0.70041152263374484</v>
       </c>
-    </row>
-    <row r="62" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J61">
+        <f t="shared" si="2"/>
+        <v>-0.60000000000000042</v>
+      </c>
+      <c r="K61">
+        <f t="shared" si="3"/>
+        <v>-0.70041152263374484</v>
+      </c>
+    </row>
+    <row r="62" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H62">
         <f t="shared" si="1"/>
         <v>0.61000000000000043</v>
@@ -3656,8 +6541,16 @@
         <f t="shared" si="0"/>
         <v>0.70071111111111106</v>
       </c>
-    </row>
-    <row r="63" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J62">
+        <f t="shared" si="2"/>
+        <v>-0.61000000000000043</v>
+      </c>
+      <c r="K62">
+        <f t="shared" si="3"/>
+        <v>-0.70071111111111106</v>
+      </c>
+    </row>
+    <row r="63" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H63">
         <f t="shared" si="1"/>
         <v>0.62000000000000044</v>
@@ -3666,8 +6559,16 @@
         <f t="shared" si="0"/>
         <v>0.70112921810699591</v>
       </c>
-    </row>
-    <row r="64" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J63">
+        <f t="shared" si="2"/>
+        <v>-0.62000000000000044</v>
+      </c>
+      <c r="K63">
+        <f t="shared" si="3"/>
+        <v>-0.70112921810699591</v>
+      </c>
+    </row>
+    <row r="64" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H64">
         <f t="shared" si="1"/>
         <v>0.63000000000000045</v>
@@ -3676,8 +6577,16 @@
         <f t="shared" si="0"/>
         <v>0.70168559670781894</v>
       </c>
-    </row>
-    <row r="65" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J64">
+        <f t="shared" si="2"/>
+        <v>-0.63000000000000045</v>
+      </c>
+      <c r="K64">
+        <f t="shared" si="3"/>
+        <v>-0.70168559670781894</v>
+      </c>
+    </row>
+    <row r="65" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H65">
         <f t="shared" si="1"/>
         <v>0.64000000000000046</v>
@@ -3686,8 +6595,16 @@
         <f t="shared" si="0"/>
         <v>0.70240000000000002</v>
       </c>
-    </row>
-    <row r="66" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J65">
+        <f t="shared" si="2"/>
+        <v>-0.64000000000000046</v>
+      </c>
+      <c r="K65">
+        <f t="shared" si="3"/>
+        <v>-0.70240000000000002</v>
+      </c>
+    </row>
+    <row r="66" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H66">
         <f t="shared" si="1"/>
         <v>0.65000000000000047</v>
@@ -3696,8 +6613,16 @@
         <f t="shared" si="0"/>
         <v>0.70329218106995883</v>
       </c>
-    </row>
-    <row r="67" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J66">
+        <f t="shared" si="2"/>
+        <v>-0.65000000000000047</v>
+      </c>
+      <c r="K66">
+        <f t="shared" si="3"/>
+        <v>-0.70329218106995883</v>
+      </c>
+    </row>
+    <row r="67" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H67">
         <f t="shared" si="1"/>
         <v>0.66000000000000048</v>
@@ -3706,8 +6631,16 @@
         <f t="shared" si="0"/>
         <v>0.70438189300411524</v>
       </c>
-    </row>
-    <row r="68" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J67">
+        <f t="shared" si="2"/>
+        <v>-0.66000000000000048</v>
+      </c>
+      <c r="K67">
+        <f t="shared" si="3"/>
+        <v>-0.70438189300411524</v>
+      </c>
+    </row>
+    <row r="68" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H68">
         <f t="shared" si="1"/>
         <v>0.67000000000000048</v>
@@ -3716,8 +6649,16 @@
         <f t="shared" si="0"/>
         <v>0.70568888888888892</v>
       </c>
-    </row>
-    <row r="69" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J68">
+        <f t="shared" si="2"/>
+        <v>-0.67000000000000048</v>
+      </c>
+      <c r="K68">
+        <f t="shared" si="3"/>
+        <v>-0.70568888888888892</v>
+      </c>
+    </row>
+    <row r="69" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H69">
         <f t="shared" si="1"/>
         <v>0.68000000000000049</v>
@@ -3726,8 +6667,16 @@
         <f t="shared" si="0"/>
         <v>0.70723292181069963</v>
       </c>
-    </row>
-    <row r="70" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J69">
+        <f t="shared" si="2"/>
+        <v>-0.68000000000000049</v>
+      </c>
+      <c r="K69">
+        <f t="shared" si="3"/>
+        <v>-0.70723292181069963</v>
+      </c>
+    </row>
+    <row r="70" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H70">
         <f t="shared" si="1"/>
         <v>0.6900000000000005</v>
@@ -3736,8 +6685,16 @@
         <f t="shared" si="0"/>
         <v>0.70903374485596715</v>
       </c>
-    </row>
-    <row r="71" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J70">
+        <f t="shared" si="2"/>
+        <v>-0.6900000000000005</v>
+      </c>
+      <c r="K70">
+        <f t="shared" si="3"/>
+        <v>-0.70903374485596715</v>
+      </c>
+    </row>
+    <row r="71" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H71">
         <f t="shared" si="1"/>
         <v>0.70000000000000051</v>
@@ -3746,8 +6703,16 @@
         <f t="shared" si="0"/>
         <v>0.71111111111111114</v>
       </c>
-    </row>
-    <row r="72" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J71">
+        <f t="shared" si="2"/>
+        <v>-0.70000000000000051</v>
+      </c>
+      <c r="K71">
+        <f t="shared" si="3"/>
+        <v>-0.71111111111111114</v>
+      </c>
+    </row>
+    <row r="72" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H72">
         <f t="shared" si="1"/>
         <v>0.71000000000000052</v>
@@ -3756,8 +6721,16 @@
         <f t="shared" si="0"/>
         <v>0.71348477366255147</v>
       </c>
-    </row>
-    <row r="73" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J72">
+        <f t="shared" si="2"/>
+        <v>-0.71000000000000052</v>
+      </c>
+      <c r="K72">
+        <f t="shared" si="3"/>
+        <v>-0.71348477366255147</v>
+      </c>
+    </row>
+    <row r="73" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H73">
         <f t="shared" si="1"/>
         <v>0.72000000000000053</v>
@@ -3766,8 +6739,16 @@
         <f t="shared" si="0"/>
         <v>0.71617448559670793</v>
       </c>
-    </row>
-    <row r="74" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J73">
+        <f t="shared" si="2"/>
+        <v>-0.72000000000000053</v>
+      </c>
+      <c r="K73">
+        <f t="shared" si="3"/>
+        <v>-0.71617448559670793</v>
+      </c>
+    </row>
+    <row r="74" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H74">
         <f t="shared" si="1"/>
         <v>0.73000000000000054</v>
@@ -3776,8 +6757,16 @@
         <f t="shared" si="0"/>
         <v>0.71920000000000006</v>
       </c>
-    </row>
-    <row r="75" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J74">
+        <f t="shared" si="2"/>
+        <v>-0.73000000000000054</v>
+      </c>
+      <c r="K74">
+        <f t="shared" si="3"/>
+        <v>-0.71920000000000006</v>
+      </c>
+    </row>
+    <row r="75" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H75">
         <f t="shared" si="1"/>
         <v>0.74000000000000055</v>
@@ -3786,1795 +6775,3235 @@
         <f t="shared" si="0"/>
         <v>0.72258106995884785</v>
       </c>
-    </row>
-    <row r="76" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J75">
+        <f t="shared" si="2"/>
+        <v>-0.74000000000000055</v>
+      </c>
+      <c r="K75">
+        <f t="shared" si="3"/>
+        <v>-0.72258106995884785</v>
+      </c>
+    </row>
+    <row r="76" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H76">
         <f t="shared" si="1"/>
         <v>0.75000000000000056</v>
       </c>
       <c r="I76">
-        <f t="shared" ref="I76:I139" si="2">$K$4*(H76-$F$5)^3+$L$4</f>
+        <f t="shared" ref="I76:I139" si="4">$K$4*(H76-$F$5)^3+$L$4</f>
         <v>0.72633744855967097</v>
       </c>
-    </row>
-    <row r="77" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J76">
+        <f t="shared" si="2"/>
+        <v>-0.75000000000000056</v>
+      </c>
+      <c r="K76">
+        <f t="shared" si="3"/>
+        <v>-0.72633744855967097</v>
+      </c>
+    </row>
+    <row r="77" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H77">
-        <f t="shared" ref="H77:H140" si="3">H76+0.01</f>
+        <f t="shared" ref="H77:H140" si="5">H76+0.01</f>
         <v>0.76000000000000056</v>
       </c>
       <c r="I77">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.73048888888888908</v>
       </c>
-    </row>
-    <row r="78" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J77">
+        <f t="shared" ref="J77:J140" si="6">J76-0.01</f>
+        <v>-0.76000000000000056</v>
+      </c>
+      <c r="K77">
+        <f t="shared" ref="K77:K140" si="7">-$K$4*(H77-$F$5)^3-$L$4</f>
+        <v>-0.73048888888888908</v>
+      </c>
+    </row>
+    <row r="78" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H78">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.77000000000000057</v>
       </c>
       <c r="I78">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.73505514403292205</v>
       </c>
-    </row>
-    <row r="79" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J78">
+        <f t="shared" si="6"/>
+        <v>-0.77000000000000057</v>
+      </c>
+      <c r="K78">
+        <f t="shared" si="7"/>
+        <v>-0.73505514403292205</v>
+      </c>
+    </row>
+    <row r="79" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H79">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.78000000000000058</v>
       </c>
       <c r="I79">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.74005596707818955</v>
       </c>
-    </row>
-    <row r="80" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J79">
+        <f t="shared" si="6"/>
+        <v>-0.78000000000000058</v>
+      </c>
+      <c r="K79">
+        <f t="shared" si="7"/>
+        <v>-0.74005596707818955</v>
+      </c>
+    </row>
+    <row r="80" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H80">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.79000000000000059</v>
       </c>
       <c r="I80">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.74551111111111135</v>
       </c>
-    </row>
-    <row r="81" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J80">
+        <f t="shared" si="6"/>
+        <v>-0.79000000000000059</v>
+      </c>
+      <c r="K80">
+        <f t="shared" si="7"/>
+        <v>-0.74551111111111135</v>
+      </c>
+    </row>
+    <row r="81" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.8000000000000006</v>
       </c>
       <c r="I81">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.75144032921810733</v>
       </c>
-    </row>
-    <row r="82" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J81">
+        <f t="shared" si="6"/>
+        <v>-0.8000000000000006</v>
+      </c>
+      <c r="K81">
+        <f t="shared" si="7"/>
+        <v>-0.75144032921810733</v>
+      </c>
+    </row>
+    <row r="82" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H82">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.81000000000000061</v>
       </c>
       <c r="I82">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.75786337448559704</v>
       </c>
-    </row>
-    <row r="83" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J82">
+        <f t="shared" si="6"/>
+        <v>-0.81000000000000061</v>
+      </c>
+      <c r="K82">
+        <f t="shared" si="7"/>
+        <v>-0.75786337448559704</v>
+      </c>
+    </row>
+    <row r="83" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H83">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.82000000000000062</v>
       </c>
       <c r="I83">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.76480000000000037</v>
       </c>
-    </row>
-    <row r="84" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J83">
+        <f t="shared" si="6"/>
+        <v>-0.82000000000000062</v>
+      </c>
+      <c r="K83">
+        <f t="shared" si="7"/>
+        <v>-0.76480000000000037</v>
+      </c>
+    </row>
+    <row r="84" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H84">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.83000000000000063</v>
       </c>
       <c r="I84">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.77226995884773697</v>
       </c>
-    </row>
-    <row r="85" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J84">
+        <f t="shared" si="6"/>
+        <v>-0.83000000000000063</v>
+      </c>
+      <c r="K84">
+        <f t="shared" si="7"/>
+        <v>-0.77226995884773697</v>
+      </c>
+    </row>
+    <row r="85" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H85">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.84000000000000064</v>
       </c>
       <c r="I85">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.78029300411522673</v>
       </c>
-    </row>
-    <row r="86" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J85">
+        <f t="shared" si="6"/>
+        <v>-0.84000000000000064</v>
+      </c>
+      <c r="K85">
+        <f t="shared" si="7"/>
+        <v>-0.78029300411522673</v>
+      </c>
+    </row>
+    <row r="86" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H86">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.85000000000000064</v>
       </c>
       <c r="I86">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.78888888888888931</v>
       </c>
-    </row>
-    <row r="87" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J86">
+        <f t="shared" si="6"/>
+        <v>-0.85000000000000064</v>
+      </c>
+      <c r="K86">
+        <f t="shared" si="7"/>
+        <v>-0.78888888888888931</v>
+      </c>
+    </row>
+    <row r="87" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H87">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.86000000000000065</v>
       </c>
       <c r="I87">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.79807736625514458</v>
       </c>
-    </row>
-    <row r="88" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J87">
+        <f t="shared" si="6"/>
+        <v>-0.86000000000000065</v>
+      </c>
+      <c r="K87">
+        <f t="shared" si="7"/>
+        <v>-0.79807736625514458</v>
+      </c>
+    </row>
+    <row r="88" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H88">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.87000000000000066</v>
       </c>
       <c r="I88">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.80787818930041211</v>
       </c>
-    </row>
-    <row r="89" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J88">
+        <f t="shared" si="6"/>
+        <v>-0.87000000000000066</v>
+      </c>
+      <c r="K88">
+        <f t="shared" si="7"/>
+        <v>-0.80787818930041211</v>
+      </c>
+    </row>
+    <row r="89" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H89">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.88000000000000067</v>
       </c>
       <c r="I89">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.81831111111111166</v>
       </c>
-    </row>
-    <row r="90" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J89">
+        <f t="shared" si="6"/>
+        <v>-0.88000000000000067</v>
+      </c>
+      <c r="K89">
+        <f t="shared" si="7"/>
+        <v>-0.81831111111111166</v>
+      </c>
+    </row>
+    <row r="90" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H90">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.89000000000000068</v>
       </c>
       <c r="I90">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.82939588477366322</v>
       </c>
-    </row>
-    <row r="91" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J90">
+        <f t="shared" si="6"/>
+        <v>-0.89000000000000068</v>
+      </c>
+      <c r="K90">
+        <f t="shared" si="7"/>
+        <v>-0.82939588477366322</v>
+      </c>
+    </row>
+    <row r="91" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H91">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.90000000000000069</v>
       </c>
       <c r="I91">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.84115226337448634</v>
       </c>
-    </row>
-    <row r="92" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J91">
+        <f t="shared" si="6"/>
+        <v>-0.90000000000000069</v>
+      </c>
+      <c r="K91">
+        <f t="shared" si="7"/>
+        <v>-0.84115226337448634</v>
+      </c>
+    </row>
+    <row r="92" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H92">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.9100000000000007</v>
       </c>
       <c r="I92">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.85360000000000069</v>
       </c>
-    </row>
-    <row r="93" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J92">
+        <f t="shared" si="6"/>
+        <v>-0.9100000000000007</v>
+      </c>
+      <c r="K92">
+        <f t="shared" si="7"/>
+        <v>-0.85360000000000069</v>
+      </c>
+    </row>
+    <row r="93" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H93">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.92000000000000071</v>
       </c>
       <c r="I93">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.86675884773662637</v>
       </c>
-    </row>
-    <row r="94" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J93">
+        <f t="shared" si="6"/>
+        <v>-0.92000000000000071</v>
+      </c>
+      <c r="K93">
+        <f t="shared" si="7"/>
+        <v>-0.86675884773662637</v>
+      </c>
+    </row>
+    <row r="94" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H94">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.93000000000000071</v>
       </c>
       <c r="I94">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.8806485596707827</v>
       </c>
-    </row>
-    <row r="95" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J94">
+        <f t="shared" si="6"/>
+        <v>-0.93000000000000071</v>
+      </c>
+      <c r="K94">
+        <f t="shared" si="7"/>
+        <v>-0.8806485596707827</v>
+      </c>
+    </row>
+    <row r="95" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H95">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.94000000000000072</v>
       </c>
       <c r="I95">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.8952888888888898</v>
       </c>
-    </row>
-    <row r="96" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J95">
+        <f t="shared" si="6"/>
+        <v>-0.94000000000000072</v>
+      </c>
+      <c r="K95">
+        <f t="shared" si="7"/>
+        <v>-0.8952888888888898</v>
+      </c>
+    </row>
+    <row r="96" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H96">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.95000000000000073</v>
       </c>
       <c r="I96">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.91069958847736721</v>
       </c>
-    </row>
-    <row r="97" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J96">
+        <f t="shared" si="6"/>
+        <v>-0.95000000000000073</v>
+      </c>
+      <c r="K96">
+        <f t="shared" si="7"/>
+        <v>-0.91069958847736721</v>
+      </c>
+    </row>
+    <row r="97" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H97">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.96000000000000074</v>
       </c>
       <c r="I97">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.9269004115226348</v>
       </c>
-    </row>
-    <row r="98" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J97">
+        <f t="shared" si="6"/>
+        <v>-0.96000000000000074</v>
+      </c>
+      <c r="K97">
+        <f t="shared" si="7"/>
+        <v>-0.9269004115226348</v>
+      </c>
+    </row>
+    <row r="98" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H98">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.97000000000000075</v>
       </c>
       <c r="I98">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.94391111111111226</v>
       </c>
-    </row>
-    <row r="99" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J98">
+        <f t="shared" si="6"/>
+        <v>-0.97000000000000075</v>
+      </c>
+      <c r="K98">
+        <f t="shared" si="7"/>
+        <v>-0.94391111111111226</v>
+      </c>
+    </row>
+    <row r="99" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H99">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.98000000000000076</v>
       </c>
       <c r="I99">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.96175144032921933</v>
       </c>
-    </row>
-    <row r="100" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J99">
+        <f t="shared" si="6"/>
+        <v>-0.98000000000000076</v>
+      </c>
+      <c r="K99">
+        <f t="shared" si="7"/>
+        <v>-0.96175144032921933</v>
+      </c>
+    </row>
+    <row r="100" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H100">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.99000000000000077</v>
       </c>
       <c r="I100">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.98044115226337569</v>
       </c>
-    </row>
-    <row r="101" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J100">
+        <f t="shared" si="6"/>
+        <v>-0.99000000000000077</v>
+      </c>
+      <c r="K100">
+        <f t="shared" si="7"/>
+        <v>-0.98044115226337569</v>
+      </c>
+    </row>
+    <row r="101" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H101">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.0000000000000007</v>
       </c>
       <c r="I101">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.0000000000000011</v>
       </c>
-    </row>
-    <row r="102" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J101">
+        <f t="shared" si="6"/>
+        <v>-1.0000000000000007</v>
+      </c>
+      <c r="K101">
+        <f t="shared" si="7"/>
+        <v>-1.0000000000000011</v>
+      </c>
+    </row>
+    <row r="102" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H102">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.0100000000000007</v>
       </c>
       <c r="I102">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.0204477366255156</v>
       </c>
-    </row>
-    <row r="103" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J102">
+        <f t="shared" si="6"/>
+        <v>-1.0100000000000007</v>
+      </c>
+      <c r="K102">
+        <f t="shared" si="7"/>
+        <v>-1.0204477366255156</v>
+      </c>
+    </row>
+    <row r="103" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H103">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.0200000000000007</v>
       </c>
       <c r="I103">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.0418041152263386</v>
       </c>
-    </row>
-    <row r="104" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J103">
+        <f t="shared" si="6"/>
+        <v>-1.0200000000000007</v>
+      </c>
+      <c r="K103">
+        <f t="shared" si="7"/>
+        <v>-1.0418041152263386</v>
+      </c>
+    </row>
+    <row r="104" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H104">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.0300000000000007</v>
       </c>
       <c r="I104">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.0640888888888902</v>
       </c>
-    </row>
-    <row r="105" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J104">
+        <f t="shared" si="6"/>
+        <v>-1.0300000000000007</v>
+      </c>
+      <c r="K104">
+        <f t="shared" si="7"/>
+        <v>-1.0640888888888902</v>
+      </c>
+    </row>
+    <row r="105" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H105">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.0400000000000007</v>
       </c>
       <c r="I105">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.0873218106995899</v>
       </c>
-    </row>
-    <row r="106" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J105">
+        <f t="shared" si="6"/>
+        <v>-1.0400000000000007</v>
+      </c>
+      <c r="K105">
+        <f t="shared" si="7"/>
+        <v>-1.0873218106995899</v>
+      </c>
+    </row>
+    <row r="106" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.0500000000000007</v>
       </c>
       <c r="I106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.1115226337448574</v>
       </c>
-    </row>
-    <row r="107" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J106">
+        <f t="shared" si="6"/>
+        <v>-1.0500000000000007</v>
+      </c>
+      <c r="K106">
+        <f t="shared" si="7"/>
+        <v>-1.1115226337448574</v>
+      </c>
+    </row>
+    <row r="107" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H107">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.0600000000000007</v>
       </c>
       <c r="I107">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.1367111111111126</v>
       </c>
-    </row>
-    <row r="108" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J107">
+        <f t="shared" si="6"/>
+        <v>-1.0600000000000007</v>
+      </c>
+      <c r="K107">
+        <f t="shared" si="7"/>
+        <v>-1.1367111111111126</v>
+      </c>
+    </row>
+    <row r="108" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H108">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.0700000000000007</v>
       </c>
       <c r="I108">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.1629069958847751</v>
       </c>
-    </row>
-    <row r="109" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J108">
+        <f t="shared" si="6"/>
+        <v>-1.0700000000000007</v>
+      </c>
+      <c r="K108">
+        <f t="shared" si="7"/>
+        <v>-1.1629069958847751</v>
+      </c>
+    </row>
+    <row r="109" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H109">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.0800000000000007</v>
       </c>
       <c r="I109">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.1901300411522651</v>
       </c>
-    </row>
-    <row r="110" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J109">
+        <f t="shared" si="6"/>
+        <v>-1.0800000000000007</v>
+      </c>
+      <c r="K109">
+        <f t="shared" si="7"/>
+        <v>-1.1901300411522651</v>
+      </c>
+    </row>
+    <row r="110" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H110">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.0900000000000007</v>
       </c>
       <c r="I110">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.2184000000000017</v>
       </c>
-    </row>
-    <row r="111" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J110">
+        <f t="shared" si="6"/>
+        <v>-1.0900000000000007</v>
+      </c>
+      <c r="K110">
+        <f t="shared" si="7"/>
+        <v>-1.2184000000000017</v>
+      </c>
+    </row>
+    <row r="111" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H111">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.1000000000000008</v>
       </c>
       <c r="I111">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.2477366255144051</v>
       </c>
-    </row>
-    <row r="112" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J111">
+        <f t="shared" si="6"/>
+        <v>-1.1000000000000008</v>
+      </c>
+      <c r="K111">
+        <f t="shared" si="7"/>
+        <v>-1.2477366255144051</v>
+      </c>
+    </row>
+    <row r="112" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H112">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.1100000000000008</v>
       </c>
       <c r="I112">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.278159670781895</v>
       </c>
-    </row>
-    <row r="113" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J112">
+        <f t="shared" si="6"/>
+        <v>-1.1100000000000008</v>
+      </c>
+      <c r="K112">
+        <f t="shared" si="7"/>
+        <v>-1.278159670781895</v>
+      </c>
+    </row>
+    <row r="113" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H113">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.1200000000000008</v>
       </c>
       <c r="I113">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.3096888888888909</v>
       </c>
-    </row>
-    <row r="114" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J113">
+        <f t="shared" si="6"/>
+        <v>-1.1200000000000008</v>
+      </c>
+      <c r="K113">
+        <f t="shared" si="7"/>
+        <v>-1.3096888888888909</v>
+      </c>
+    </row>
+    <row r="114" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H114">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.1300000000000008</v>
       </c>
       <c r="I114">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.342344032921813</v>
       </c>
-    </row>
-    <row r="115" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J114">
+        <f t="shared" si="6"/>
+        <v>-1.1300000000000008</v>
+      </c>
+      <c r="K114">
+        <f t="shared" si="7"/>
+        <v>-1.342344032921813</v>
+      </c>
+    </row>
+    <row r="115" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H115">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.1400000000000008</v>
       </c>
       <c r="I115">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.3761448559670804</v>
       </c>
-    </row>
-    <row r="116" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J115">
+        <f t="shared" si="6"/>
+        <v>-1.1400000000000008</v>
+      </c>
+      <c r="K115">
+        <f t="shared" si="7"/>
+        <v>-1.3761448559670804</v>
+      </c>
+    </row>
+    <row r="116" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H116">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.1500000000000008</v>
       </c>
       <c r="I116">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.4111111111111136</v>
       </c>
-    </row>
-    <row r="117" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J116">
+        <f t="shared" si="6"/>
+        <v>-1.1500000000000008</v>
+      </c>
+      <c r="K116">
+        <f t="shared" si="7"/>
+        <v>-1.4111111111111136</v>
+      </c>
+    </row>
+    <row r="117" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H117">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.1600000000000008</v>
       </c>
       <c r="I117">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.4472625514403317</v>
       </c>
-    </row>
-    <row r="118" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J117">
+        <f t="shared" si="6"/>
+        <v>-1.1600000000000008</v>
+      </c>
+      <c r="K117">
+        <f t="shared" si="7"/>
+        <v>-1.4472625514403317</v>
+      </c>
+    </row>
+    <row r="118" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H118">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.1700000000000008</v>
       </c>
       <c r="I118">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.484618930041155</v>
       </c>
-    </row>
-    <row r="119" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J118">
+        <f t="shared" si="6"/>
+        <v>-1.1700000000000008</v>
+      </c>
+      <c r="K118">
+        <f t="shared" si="7"/>
+        <v>-1.484618930041155</v>
+      </c>
+    </row>
+    <row r="119" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H119">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.1800000000000008</v>
       </c>
       <c r="I119">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.5232000000000028</v>
       </c>
-    </row>
-    <row r="120" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J119">
+        <f t="shared" si="6"/>
+        <v>-1.1800000000000008</v>
+      </c>
+      <c r="K119">
+        <f t="shared" si="7"/>
+        <v>-1.5232000000000028</v>
+      </c>
+    </row>
+    <row r="120" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H120">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.1900000000000008</v>
       </c>
       <c r="I120">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.5630255144032952</v>
       </c>
-    </row>
-    <row r="121" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J120">
+        <f t="shared" si="6"/>
+        <v>-1.1900000000000008</v>
+      </c>
+      <c r="K120">
+        <f t="shared" si="7"/>
+        <v>-1.5630255144032952</v>
+      </c>
+    </row>
+    <row r="121" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H121">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.2000000000000008</v>
       </c>
       <c r="I121">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.6041152263374516</v>
       </c>
-    </row>
-    <row r="122" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J121">
+        <f t="shared" si="6"/>
+        <v>-1.2000000000000008</v>
+      </c>
+      <c r="K121">
+        <f t="shared" si="7"/>
+        <v>-1.6041152263374516</v>
+      </c>
+    </row>
+    <row r="122" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H122">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.2100000000000009</v>
       </c>
       <c r="I122">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.646488888888892</v>
       </c>
-    </row>
-    <row r="123" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J122">
+        <f t="shared" si="6"/>
+        <v>-1.2100000000000009</v>
+      </c>
+      <c r="K122">
+        <f t="shared" si="7"/>
+        <v>-1.646488888888892</v>
+      </c>
+    </row>
+    <row r="123" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H123">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.2200000000000009</v>
       </c>
       <c r="I123">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.6901662551440362</v>
       </c>
-    </row>
-    <row r="124" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J123">
+        <f t="shared" si="6"/>
+        <v>-1.2200000000000009</v>
+      </c>
+      <c r="K123">
+        <f t="shared" si="7"/>
+        <v>-1.6901662551440362</v>
+      </c>
+    </row>
+    <row r="124" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H124">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.2300000000000009</v>
       </c>
       <c r="I124">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.7351670781893038</v>
       </c>
-    </row>
-    <row r="125" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J124">
+        <f t="shared" si="6"/>
+        <v>-1.2300000000000009</v>
+      </c>
+      <c r="K124">
+        <f t="shared" si="7"/>
+        <v>-1.7351670781893038</v>
+      </c>
+    </row>
+    <row r="125" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H125">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.2400000000000009</v>
       </c>
       <c r="I125">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.7815111111111146</v>
       </c>
-    </row>
-    <row r="126" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J125">
+        <f t="shared" si="6"/>
+        <v>-1.2400000000000009</v>
+      </c>
+      <c r="K125">
+        <f t="shared" si="7"/>
+        <v>-1.7815111111111146</v>
+      </c>
+    </row>
+    <row r="126" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H126">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.2500000000000009</v>
       </c>
       <c r="I126">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.8292181069958884</v>
       </c>
-    </row>
-    <row r="127" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J126">
+        <f t="shared" si="6"/>
+        <v>-1.2500000000000009</v>
+      </c>
+      <c r="K126">
+        <f t="shared" si="7"/>
+        <v>-1.8292181069958884</v>
+      </c>
+    </row>
+    <row r="127" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H127">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.2600000000000009</v>
       </c>
       <c r="I127">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.8783078189300451</v>
       </c>
-    </row>
-    <row r="128" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J127">
+        <f t="shared" si="6"/>
+        <v>-1.2600000000000009</v>
+      </c>
+      <c r="K127">
+        <f t="shared" si="7"/>
+        <v>-1.8783078189300451</v>
+      </c>
+    </row>
+    <row r="128" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H128">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.2700000000000009</v>
       </c>
       <c r="I128">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.9288000000000038</v>
       </c>
-    </row>
-    <row r="129" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J128">
+        <f t="shared" si="6"/>
+        <v>-1.2700000000000009</v>
+      </c>
+      <c r="K128">
+        <f t="shared" si="7"/>
+        <v>-1.9288000000000038</v>
+      </c>
+    </row>
+    <row r="129" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H129">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.2800000000000009</v>
       </c>
       <c r="I129">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.9807144032921851</v>
       </c>
-    </row>
-    <row r="130" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J129">
+        <f t="shared" si="6"/>
+        <v>-1.2800000000000009</v>
+      </c>
+      <c r="K129">
+        <f t="shared" si="7"/>
+        <v>-1.9807144032921851</v>
+      </c>
+    </row>
+    <row r="130" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H130">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.2900000000000009</v>
       </c>
       <c r="I130">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.0340707818930084</v>
       </c>
-    </row>
-    <row r="131" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J130">
+        <f t="shared" si="6"/>
+        <v>-1.2900000000000009</v>
+      </c>
+      <c r="K130">
+        <f t="shared" si="7"/>
+        <v>-2.0340707818930084</v>
+      </c>
+    </row>
+    <row r="131" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H131">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.3000000000000009</v>
       </c>
       <c r="I131">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.088888888888893</v>
       </c>
-    </row>
-    <row r="132" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J131">
+        <f t="shared" si="6"/>
+        <v>-1.3000000000000009</v>
+      </c>
+      <c r="K131">
+        <f t="shared" si="7"/>
+        <v>-2.088888888888893</v>
+      </c>
+    </row>
+    <row r="132" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H132">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.3100000000000009</v>
       </c>
       <c r="I132">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.1451884773662595</v>
       </c>
-    </row>
-    <row r="133" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J132">
+        <f t="shared" si="6"/>
+        <v>-1.3100000000000009</v>
+      </c>
+      <c r="K132">
+        <f t="shared" si="7"/>
+        <v>-2.1451884773662595</v>
+      </c>
+    </row>
+    <row r="133" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H133">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.320000000000001</v>
       </c>
       <c r="I133">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.2029893004115273</v>
       </c>
-    </row>
-    <row r="134" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J133">
+        <f t="shared" si="6"/>
+        <v>-1.320000000000001</v>
+      </c>
+      <c r="K133">
+        <f t="shared" si="7"/>
+        <v>-2.2029893004115273</v>
+      </c>
+    </row>
+    <row r="134" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H134">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.330000000000001</v>
       </c>
       <c r="I134">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.2623111111111158</v>
       </c>
-    </row>
-    <row r="135" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J134">
+        <f t="shared" si="6"/>
+        <v>-1.330000000000001</v>
+      </c>
+      <c r="K134">
+        <f t="shared" si="7"/>
+        <v>-2.2623111111111158</v>
+      </c>
+    </row>
+    <row r="135" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H135">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.340000000000001</v>
       </c>
       <c r="I135">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.3231736625514454</v>
       </c>
-    </row>
-    <row r="136" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J135">
+        <f t="shared" si="6"/>
+        <v>-1.340000000000001</v>
+      </c>
+      <c r="K135">
+        <f t="shared" si="7"/>
+        <v>-2.3231736625514454</v>
+      </c>
+    </row>
+    <row r="136" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H136">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.350000000000001</v>
       </c>
       <c r="I136">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.3855967078189355</v>
       </c>
-    </row>
-    <row r="137" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J136">
+        <f t="shared" si="6"/>
+        <v>-1.350000000000001</v>
+      </c>
+      <c r="K136">
+        <f t="shared" si="7"/>
+        <v>-2.3855967078189355</v>
+      </c>
+    </row>
+    <row r="137" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H137">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.360000000000001</v>
       </c>
       <c r="I137">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.4496000000000056</v>
       </c>
-    </row>
-    <row r="138" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J137">
+        <f t="shared" si="6"/>
+        <v>-1.360000000000001</v>
+      </c>
+      <c r="K137">
+        <f t="shared" si="7"/>
+        <v>-2.4496000000000056</v>
+      </c>
+    </row>
+    <row r="138" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H138">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.370000000000001</v>
       </c>
       <c r="I138">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.5152032921810754</v>
       </c>
-    </row>
-    <row r="139" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J138">
+        <f t="shared" si="6"/>
+        <v>-1.370000000000001</v>
+      </c>
+      <c r="K138">
+        <f t="shared" si="7"/>
+        <v>-2.5152032921810754</v>
+      </c>
+    </row>
+    <row r="139" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H139">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.380000000000001</v>
       </c>
       <c r="I139">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.5824263374485659</v>
       </c>
-    </row>
-    <row r="140" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J139">
+        <f t="shared" si="6"/>
+        <v>-1.380000000000001</v>
+      </c>
+      <c r="K139">
+        <f t="shared" si="7"/>
+        <v>-2.5824263374485659</v>
+      </c>
+    </row>
+    <row r="140" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H140">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.390000000000001</v>
       </c>
       <c r="I140">
-        <f t="shared" ref="I140:I203" si="4">$K$4*(H140-$F$5)^3+$L$4</f>
+        <f t="shared" ref="I140:I203" si="8">$K$4*(H140-$F$5)^3+$L$4</f>
         <v>2.651288888888895</v>
       </c>
-    </row>
-    <row r="141" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J140">
+        <f t="shared" si="6"/>
+        <v>-1.390000000000001</v>
+      </c>
+      <c r="K140">
+        <f t="shared" si="7"/>
+        <v>-2.651288888888895</v>
+      </c>
+    </row>
+    <row r="141" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H141">
-        <f t="shared" ref="H141:H204" si="5">H140+0.01</f>
+        <f t="shared" ref="H141:H204" si="9">H140+0.01</f>
         <v>1.400000000000001</v>
       </c>
       <c r="I141">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>2.7218106995884837</v>
       </c>
-    </row>
-    <row r="142" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J141">
+        <f t="shared" ref="J141:J204" si="10">J140-0.01</f>
+        <v>-1.400000000000001</v>
+      </c>
+      <c r="K141">
+        <f t="shared" ref="K141:K204" si="11">-$K$4*(H141-$F$5)^3-$L$4</f>
+        <v>-2.7218106995884837</v>
+      </c>
+    </row>
+    <row r="142" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H142">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1.410000000000001</v>
       </c>
       <c r="I142">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>2.7940115226337516</v>
       </c>
-    </row>
-    <row r="143" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J142">
+        <f t="shared" si="10"/>
+        <v>-1.410000000000001</v>
+      </c>
+      <c r="K142">
+        <f t="shared" si="11"/>
+        <v>-2.7940115226337516</v>
+      </c>
+    </row>
+    <row r="143" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H143">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1.420000000000001</v>
       </c>
       <c r="I143">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>2.8679111111111171</v>
       </c>
-    </row>
-    <row r="144" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J143">
+        <f t="shared" si="10"/>
+        <v>-1.420000000000001</v>
+      </c>
+      <c r="K143">
+        <f t="shared" si="11"/>
+        <v>-2.8679111111111171</v>
+      </c>
+    </row>
+    <row r="144" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H144">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1.430000000000001</v>
       </c>
       <c r="I144">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>2.9435292181070025</v>
       </c>
-    </row>
-    <row r="145" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J144">
+        <f t="shared" si="10"/>
+        <v>-1.430000000000001</v>
+      </c>
+      <c r="K144">
+        <f t="shared" si="11"/>
+        <v>-2.9435292181070025</v>
+      </c>
+    </row>
+    <row r="145" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H145">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1.4400000000000011</v>
       </c>
       <c r="I145">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>3.0208855967078261</v>
       </c>
-    </row>
-    <row r="146" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J145">
+        <f t="shared" si="10"/>
+        <v>-1.4400000000000011</v>
+      </c>
+      <c r="K145">
+        <f t="shared" si="11"/>
+        <v>-3.0208855967078261</v>
+      </c>
+    </row>
+    <row r="146" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H146">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1.4500000000000011</v>
       </c>
       <c r="I146">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>3.1000000000000068</v>
       </c>
-    </row>
-    <row r="147" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J146">
+        <f t="shared" si="10"/>
+        <v>-1.4500000000000011</v>
+      </c>
+      <c r="K146">
+        <f t="shared" si="11"/>
+        <v>-3.1000000000000068</v>
+      </c>
+    </row>
+    <row r="147" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H147">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1.4600000000000011</v>
       </c>
       <c r="I147">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>3.1808921810699662</v>
       </c>
-    </row>
-    <row r="148" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J147">
+        <f t="shared" si="10"/>
+        <v>-1.4600000000000011</v>
+      </c>
+      <c r="K147">
+        <f t="shared" si="11"/>
+        <v>-3.1808921810699662</v>
+      </c>
+    </row>
+    <row r="148" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H148">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1.4700000000000011</v>
       </c>
       <c r="I148">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>3.2635818930041225</v>
       </c>
-    </row>
-    <row r="149" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J148">
+        <f t="shared" si="10"/>
+        <v>-1.4700000000000011</v>
+      </c>
+      <c r="K148">
+        <f t="shared" si="11"/>
+        <v>-3.2635818930041225</v>
+      </c>
+    </row>
+    <row r="149" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H149">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1.4800000000000011</v>
       </c>
       <c r="I149">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>3.3480888888888973</v>
       </c>
-    </row>
-    <row r="150" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J149">
+        <f t="shared" si="10"/>
+        <v>-1.4800000000000011</v>
+      </c>
+      <c r="K149">
+        <f t="shared" si="11"/>
+        <v>-3.3480888888888973</v>
+      </c>
+    </row>
+    <row r="150" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H150">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1.4900000000000011</v>
       </c>
       <c r="I150">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>3.4344329218107079</v>
       </c>
-    </row>
-    <row r="151" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J150">
+        <f t="shared" si="10"/>
+        <v>-1.4900000000000011</v>
+      </c>
+      <c r="K150">
+        <f t="shared" si="11"/>
+        <v>-3.4344329218107079</v>
+      </c>
+    </row>
+    <row r="151" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H151">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1.5000000000000011</v>
       </c>
       <c r="I151">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>3.5226337448559759</v>
       </c>
-    </row>
-    <row r="152" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J151">
+        <f t="shared" si="10"/>
+        <v>-1.5000000000000011</v>
+      </c>
+      <c r="K151">
+        <f t="shared" si="11"/>
+        <v>-3.5226337448559759</v>
+      </c>
+    </row>
+    <row r="152" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H152">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1.5100000000000011</v>
       </c>
       <c r="I152">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>3.6127111111111194</v>
       </c>
-    </row>
-    <row r="153" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J152">
+        <f t="shared" si="10"/>
+        <v>-1.5100000000000011</v>
+      </c>
+      <c r="K152">
+        <f t="shared" si="11"/>
+        <v>-3.6127111111111194</v>
+      </c>
+    </row>
+    <row r="153" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H153">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1.5200000000000011</v>
       </c>
       <c r="I153">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>3.7046847736625601</v>
       </c>
-    </row>
-    <row r="154" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J153">
+        <f t="shared" si="10"/>
+        <v>-1.5200000000000011</v>
+      </c>
+      <c r="K153">
+        <f t="shared" si="11"/>
+        <v>-3.7046847736625601</v>
+      </c>
+    </row>
+    <row r="154" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H154">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1.5300000000000011</v>
       </c>
       <c r="I154">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>3.798574485596717</v>
       </c>
-    </row>
-    <row r="155" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J154">
+        <f t="shared" si="10"/>
+        <v>-1.5300000000000011</v>
+      </c>
+      <c r="K154">
+        <f t="shared" si="11"/>
+        <v>-3.798574485596717</v>
+      </c>
+    </row>
+    <row r="155" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H155">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1.5400000000000011</v>
       </c>
       <c r="I155">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>3.8944000000000099</v>
       </c>
-    </row>
-    <row r="156" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J155">
+        <f t="shared" si="10"/>
+        <v>-1.5400000000000011</v>
+      </c>
+      <c r="K155">
+        <f t="shared" si="11"/>
+        <v>-3.8944000000000099</v>
+      </c>
+    </row>
+    <row r="156" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H156">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1.5500000000000012</v>
       </c>
       <c r="I156">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>3.9921810699588578</v>
       </c>
-    </row>
-    <row r="157" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J156">
+        <f t="shared" si="10"/>
+        <v>-1.5500000000000012</v>
+      </c>
+      <c r="K156">
+        <f t="shared" si="11"/>
+        <v>-3.9921810699588578</v>
+      </c>
+    </row>
+    <row r="157" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H157">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1.5600000000000012</v>
       </c>
       <c r="I157">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>4.0919374485596807</v>
       </c>
-    </row>
-    <row r="158" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J157">
+        <f t="shared" si="10"/>
+        <v>-1.5600000000000012</v>
+      </c>
+      <c r="K157">
+        <f t="shared" si="11"/>
+        <v>-4.0919374485596807</v>
+      </c>
+    </row>
+    <row r="158" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H158">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1.5700000000000012</v>
       </c>
       <c r="I158">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>4.1936888888888992</v>
       </c>
-    </row>
-    <row r="159" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J158">
+        <f t="shared" si="10"/>
+        <v>-1.5700000000000012</v>
+      </c>
+      <c r="K158">
+        <f t="shared" si="11"/>
+        <v>-4.1936888888888992</v>
+      </c>
+    </row>
+    <row r="159" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H159">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1.5800000000000012</v>
       </c>
       <c r="I159">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>4.2974551440329325</v>
       </c>
-    </row>
-    <row r="160" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J159">
+        <f t="shared" si="10"/>
+        <v>-1.5800000000000012</v>
+      </c>
+      <c r="K159">
+        <f t="shared" si="11"/>
+        <v>-4.2974551440329325</v>
+      </c>
+    </row>
+    <row r="160" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H160">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1.5900000000000012</v>
       </c>
       <c r="I160">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>4.4032559670781994</v>
       </c>
-    </row>
-    <row r="161" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J160">
+        <f t="shared" si="10"/>
+        <v>-1.5900000000000012</v>
+      </c>
+      <c r="K160">
+        <f t="shared" si="11"/>
+        <v>-4.4032559670781994</v>
+      </c>
+    </row>
+    <row r="161" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H161">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1.6000000000000012</v>
       </c>
       <c r="I161">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>4.5111111111111226</v>
       </c>
-    </row>
-    <row r="162" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J161">
+        <f t="shared" si="10"/>
+        <v>-1.6000000000000012</v>
+      </c>
+      <c r="K161">
+        <f t="shared" si="11"/>
+        <v>-4.5111111111111226</v>
+      </c>
+    </row>
+    <row r="162" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H162">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1.6100000000000012</v>
       </c>
       <c r="I162">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>4.6210403292181184</v>
       </c>
-    </row>
-    <row r="163" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J162">
+        <f t="shared" si="10"/>
+        <v>-1.6100000000000012</v>
+      </c>
+      <c r="K162">
+        <f t="shared" si="11"/>
+        <v>-4.6210403292181184</v>
+      </c>
+    </row>
+    <row r="163" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H163">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1.6200000000000012</v>
       </c>
       <c r="I163">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>4.7330633744856083</v>
       </c>
-    </row>
-    <row r="164" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J163">
+        <f t="shared" si="10"/>
+        <v>-1.6200000000000012</v>
+      </c>
+      <c r="K163">
+        <f t="shared" si="11"/>
+        <v>-4.7330633744856083</v>
+      </c>
+    </row>
+    <row r="164" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H164">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1.6300000000000012</v>
       </c>
       <c r="I164">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>4.8472000000000124</v>
       </c>
-    </row>
-    <row r="165" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J164">
+        <f t="shared" si="10"/>
+        <v>-1.6300000000000012</v>
+      </c>
+      <c r="K164">
+        <f t="shared" si="11"/>
+        <v>-4.8472000000000124</v>
+      </c>
+    </row>
+    <row r="165" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H165">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1.6400000000000012</v>
       </c>
       <c r="I165">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>4.9634699588477487</v>
       </c>
-    </row>
-    <row r="166" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J165">
+        <f t="shared" si="10"/>
+        <v>-1.6400000000000012</v>
+      </c>
+      <c r="K165">
+        <f t="shared" si="11"/>
+        <v>-4.9634699588477487</v>
+      </c>
+    </row>
+    <row r="166" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H166">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1.6500000000000012</v>
       </c>
       <c r="I166">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>5.0818930041152397</v>
       </c>
-    </row>
-    <row r="167" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J166">
+        <f t="shared" si="10"/>
+        <v>-1.6500000000000012</v>
+      </c>
+      <c r="K166">
+        <f t="shared" si="11"/>
+        <v>-5.0818930041152397</v>
+      </c>
+    </row>
+    <row r="167" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H167">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1.6600000000000013</v>
       </c>
       <c r="I167">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>5.2024888888889018</v>
       </c>
-    </row>
-    <row r="168" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J167">
+        <f t="shared" si="10"/>
+        <v>-1.6600000000000013</v>
+      </c>
+      <c r="K167">
+        <f t="shared" si="11"/>
+        <v>-5.2024888888889018</v>
+      </c>
+    </row>
+    <row r="168" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H168">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1.6700000000000013</v>
       </c>
       <c r="I168">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>5.3252773662551567</v>
       </c>
-    </row>
-    <row r="169" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J168">
+        <f t="shared" si="10"/>
+        <v>-1.6700000000000013</v>
+      </c>
+      <c r="K168">
+        <f t="shared" si="11"/>
+        <v>-5.3252773662551567</v>
+      </c>
+    </row>
+    <row r="169" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H169">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1.6800000000000013</v>
       </c>
       <c r="I169">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>5.450278189300426</v>
       </c>
-    </row>
-    <row r="170" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J169">
+        <f t="shared" si="10"/>
+        <v>-1.6800000000000013</v>
+      </c>
+      <c r="K169">
+        <f t="shared" si="11"/>
+        <v>-5.450278189300426</v>
+      </c>
+    </row>
+    <row r="170" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H170">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1.6900000000000013</v>
       </c>
       <c r="I170">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>5.5775111111111251</v>
       </c>
-    </row>
-    <row r="171" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J170">
+        <f t="shared" si="10"/>
+        <v>-1.6900000000000013</v>
+      </c>
+      <c r="K170">
+        <f t="shared" si="11"/>
+        <v>-5.5775111111111251</v>
+      </c>
+    </row>
+    <row r="171" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H171">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1.7000000000000013</v>
       </c>
       <c r="I171">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>5.7069958847736775</v>
       </c>
-    </row>
-    <row r="172" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J171">
+        <f t="shared" si="10"/>
+        <v>-1.7000000000000013</v>
+      </c>
+      <c r="K171">
+        <f t="shared" si="11"/>
+        <v>-5.7069958847736775</v>
+      </c>
+    </row>
+    <row r="172" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H172">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1.7100000000000013</v>
       </c>
       <c r="I172">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>5.8387522633745013</v>
       </c>
-    </row>
-    <row r="173" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J172">
+        <f t="shared" si="10"/>
+        <v>-1.7100000000000013</v>
+      </c>
+      <c r="K172">
+        <f t="shared" si="11"/>
+        <v>-5.8387522633745013</v>
+      </c>
+    </row>
+    <row r="173" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H173">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1.7200000000000013</v>
       </c>
       <c r="I173">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>5.9728000000000145</v>
       </c>
-    </row>
-    <row r="174" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J173">
+        <f t="shared" si="10"/>
+        <v>-1.7200000000000013</v>
+      </c>
+      <c r="K173">
+        <f t="shared" si="11"/>
+        <v>-5.9728000000000145</v>
+      </c>
+    </row>
+    <row r="174" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H174">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1.7300000000000013</v>
       </c>
       <c r="I174">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>6.1091588477366416</v>
       </c>
-    </row>
-    <row r="175" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J174">
+        <f t="shared" si="10"/>
+        <v>-1.7300000000000013</v>
+      </c>
+      <c r="K174">
+        <f t="shared" si="11"/>
+        <v>-6.1091588477366416</v>
+      </c>
+    </row>
+    <row r="175" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H175">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1.7400000000000013</v>
       </c>
       <c r="I175">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>6.247848559670798</v>
       </c>
-    </row>
-    <row r="176" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J175">
+        <f t="shared" si="10"/>
+        <v>-1.7400000000000013</v>
+      </c>
+      <c r="K175">
+        <f t="shared" si="11"/>
+        <v>-6.247848559670798</v>
+      </c>
+    </row>
+    <row r="176" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H176">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1.7500000000000013</v>
       </c>
       <c r="I176">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>6.3888888888889053</v>
       </c>
-    </row>
-    <row r="177" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J176">
+        <f t="shared" si="10"/>
+        <v>-1.7500000000000013</v>
+      </c>
+      <c r="K176">
+        <f t="shared" si="11"/>
+        <v>-6.3888888888889053</v>
+      </c>
+    </row>
+    <row r="177" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H177">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1.7600000000000013</v>
       </c>
       <c r="I177">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>6.5322995884773833</v>
       </c>
-    </row>
-    <row r="178" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J177">
+        <f t="shared" si="10"/>
+        <v>-1.7600000000000013</v>
+      </c>
+      <c r="K177">
+        <f t="shared" si="11"/>
+        <v>-6.5322995884773833</v>
+      </c>
+    </row>
+    <row r="178" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H178">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1.7700000000000014</v>
       </c>
       <c r="I178">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>6.6781004115226512</v>
       </c>
-    </row>
-    <row r="179" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J178">
+        <f t="shared" si="10"/>
+        <v>-1.7700000000000014</v>
+      </c>
+      <c r="K178">
+        <f t="shared" si="11"/>
+        <v>-6.6781004115226512</v>
+      </c>
+    </row>
+    <row r="179" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H179">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1.7800000000000014</v>
       </c>
       <c r="I179">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>6.8263111111111288</v>
       </c>
-    </row>
-    <row r="180" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J179">
+        <f t="shared" si="10"/>
+        <v>-1.7800000000000014</v>
+      </c>
+      <c r="K179">
+        <f t="shared" si="11"/>
+        <v>-6.8263111111111288</v>
+      </c>
+    </row>
+    <row r="180" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H180">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1.7900000000000014</v>
       </c>
       <c r="I180">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>6.9769514403292359</v>
       </c>
-    </row>
-    <row r="181" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J180">
+        <f t="shared" si="10"/>
+        <v>-1.7900000000000014</v>
+      </c>
+      <c r="K180">
+        <f t="shared" si="11"/>
+        <v>-6.9769514403292359</v>
+      </c>
+    </row>
+    <row r="181" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H181">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1.8000000000000014</v>
       </c>
       <c r="I181">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>7.1300411522633924</v>
       </c>
-    </row>
-    <row r="182" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J181">
+        <f t="shared" si="10"/>
+        <v>-1.8000000000000014</v>
+      </c>
+      <c r="K181">
+        <f t="shared" si="11"/>
+        <v>-7.1300411522633924</v>
+      </c>
+    </row>
+    <row r="182" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H182">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1.8100000000000014</v>
       </c>
       <c r="I182">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>7.2856000000000183</v>
       </c>
-    </row>
-    <row r="183" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J182">
+        <f t="shared" si="10"/>
+        <v>-1.8100000000000014</v>
+      </c>
+      <c r="K182">
+        <f t="shared" si="11"/>
+        <v>-7.2856000000000183</v>
+      </c>
+    </row>
+    <row r="183" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H183">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1.8200000000000014</v>
       </c>
       <c r="I183">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>7.4436477366255334</v>
       </c>
-    </row>
-    <row r="184" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J183">
+        <f t="shared" si="10"/>
+        <v>-1.8200000000000014</v>
+      </c>
+      <c r="K183">
+        <f t="shared" si="11"/>
+        <v>-7.4436477366255334</v>
+      </c>
+    </row>
+    <row r="184" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H184">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1.8300000000000014</v>
       </c>
       <c r="I184">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>7.6042041152263566</v>
       </c>
-    </row>
-    <row r="185" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J184">
+        <f t="shared" si="10"/>
+        <v>-1.8300000000000014</v>
+      </c>
+      <c r="K184">
+        <f t="shared" si="11"/>
+        <v>-7.6042041152263566</v>
+      </c>
+    </row>
+    <row r="185" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H185">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1.8400000000000014</v>
       </c>
       <c r="I185">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>7.7672888888889098</v>
       </c>
-    </row>
-    <row r="186" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J185">
+        <f t="shared" si="10"/>
+        <v>-1.8400000000000014</v>
+      </c>
+      <c r="K185">
+        <f t="shared" si="11"/>
+        <v>-7.7672888888889098</v>
+      </c>
+    </row>
+    <row r="186" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H186">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1.8500000000000014</v>
       </c>
       <c r="I186">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>7.9329218106996082</v>
       </c>
-    </row>
-    <row r="187" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J186">
+        <f t="shared" si="10"/>
+        <v>-1.8500000000000014</v>
+      </c>
+      <c r="K186">
+        <f t="shared" si="11"/>
+        <v>-7.9329218106996082</v>
+      </c>
+    </row>
+    <row r="187" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H187">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1.8600000000000014</v>
       </c>
       <c r="I187">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>8.1011226337448772</v>
       </c>
-    </row>
-    <row r="188" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J187">
+        <f t="shared" si="10"/>
+        <v>-1.8600000000000014</v>
+      </c>
+      <c r="K187">
+        <f t="shared" si="11"/>
+        <v>-8.1011226337448772</v>
+      </c>
+    </row>
+    <row r="188" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H188">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1.8700000000000014</v>
       </c>
       <c r="I188">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>8.2719111111111321</v>
       </c>
-    </row>
-    <row r="189" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J188">
+        <f t="shared" si="10"/>
+        <v>-1.8700000000000014</v>
+      </c>
+      <c r="K188">
+        <f t="shared" si="11"/>
+        <v>-8.2719111111111321</v>
+      </c>
+    </row>
+    <row r="189" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H189">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1.8800000000000014</v>
       </c>
       <c r="I189">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>8.4453069958847937</v>
       </c>
-    </row>
-    <row r="190" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J189">
+        <f t="shared" si="10"/>
+        <v>-1.8800000000000014</v>
+      </c>
+      <c r="K189">
+        <f t="shared" si="11"/>
+        <v>-8.4453069958847937</v>
+      </c>
+    </row>
+    <row r="190" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H190">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1.8900000000000015</v>
       </c>
       <c r="I190">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>8.6213300411522855</v>
       </c>
-    </row>
-    <row r="191" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J190">
+        <f t="shared" si="10"/>
+        <v>-1.8900000000000015</v>
+      </c>
+      <c r="K190">
+        <f t="shared" si="11"/>
+        <v>-8.6213300411522855</v>
+      </c>
+    </row>
+    <row r="191" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H191">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1.9000000000000015</v>
       </c>
       <c r="I191">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>8.8000000000000203</v>
       </c>
-    </row>
-    <row r="192" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J191">
+        <f t="shared" si="10"/>
+        <v>-1.9000000000000015</v>
+      </c>
+      <c r="K191">
+        <f t="shared" si="11"/>
+        <v>-8.8000000000000203</v>
+      </c>
+    </row>
+    <row r="192" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H192">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1.9100000000000015</v>
       </c>
       <c r="I192">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>8.9813366255144249</v>
       </c>
-    </row>
-    <row r="193" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J192">
+        <f t="shared" si="10"/>
+        <v>-1.9100000000000015</v>
+      </c>
+      <c r="K192">
+        <f t="shared" si="11"/>
+        <v>-8.9813366255144249</v>
+      </c>
+    </row>
+    <row r="193" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H193">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1.9200000000000015</v>
       </c>
       <c r="I193">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>9.1653596707819158</v>
       </c>
-    </row>
-    <row r="194" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J193">
+        <f t="shared" si="10"/>
+        <v>-1.9200000000000015</v>
+      </c>
+      <c r="K193">
+        <f t="shared" si="11"/>
+        <v>-9.1653596707819158</v>
+      </c>
+    </row>
+    <row r="194" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H194">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1.9300000000000015</v>
       </c>
       <c r="I194">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>9.3520888888889129</v>
       </c>
-    </row>
-    <row r="195" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J194">
+        <f t="shared" si="10"/>
+        <v>-1.9300000000000015</v>
+      </c>
+      <c r="K194">
+        <f t="shared" si="11"/>
+        <v>-9.3520888888889129</v>
+      </c>
+    </row>
+    <row r="195" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H195">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1.9400000000000015</v>
       </c>
       <c r="I195">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>9.5415440329218342</v>
       </c>
-    </row>
-    <row r="196" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J195">
+        <f t="shared" si="10"/>
+        <v>-1.9400000000000015</v>
+      </c>
+      <c r="K195">
+        <f t="shared" si="11"/>
+        <v>-9.5415440329218342</v>
+      </c>
+    </row>
+    <row r="196" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H196">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1.9500000000000015</v>
       </c>
       <c r="I196">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>9.7337448559671031</v>
       </c>
-    </row>
-    <row r="197" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J196">
+        <f t="shared" si="10"/>
+        <v>-1.9500000000000015</v>
+      </c>
+      <c r="K196">
+        <f t="shared" si="11"/>
+        <v>-9.7337448559671031</v>
+      </c>
+    </row>
+    <row r="197" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H197">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1.9600000000000015</v>
       </c>
       <c r="I197">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>9.9287111111111361</v>
       </c>
-    </row>
-    <row r="198" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J197">
+        <f t="shared" si="10"/>
+        <v>-1.9600000000000015</v>
+      </c>
+      <c r="K197">
+        <f t="shared" si="11"/>
+        <v>-9.9287111111111361</v>
+      </c>
+    </row>
+    <row r="198" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H198">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1.9700000000000015</v>
       </c>
       <c r="I198">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>10.126462551440355</v>
       </c>
-    </row>
-    <row r="199" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J198">
+        <f t="shared" si="10"/>
+        <v>-1.9700000000000015</v>
+      </c>
+      <c r="K198">
+        <f t="shared" si="11"/>
+        <v>-10.126462551440355</v>
+      </c>
+    </row>
+    <row r="199" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H199">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1.9800000000000015</v>
       </c>
       <c r="I199">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>10.327018930041177</v>
       </c>
-    </row>
-    <row r="200" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J199">
+        <f t="shared" si="10"/>
+        <v>-1.9800000000000015</v>
+      </c>
+      <c r="K199">
+        <f t="shared" si="11"/>
+        <v>-10.327018930041177</v>
+      </c>
+    </row>
+    <row r="200" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H200">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1.9900000000000015</v>
       </c>
       <c r="I200">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>10.530400000000027</v>
       </c>
-    </row>
-    <row r="201" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J200">
+        <f t="shared" si="10"/>
+        <v>-1.9900000000000015</v>
+      </c>
+      <c r="K200">
+        <f t="shared" si="11"/>
+        <v>-10.530400000000027</v>
+      </c>
+    </row>
+    <row r="201" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H201">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>2.0000000000000013</v>
       </c>
       <c r="I201">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>10.736625514403313</v>
       </c>
-    </row>
-    <row r="202" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J201">
+        <f t="shared" si="10"/>
+        <v>-2.0000000000000013</v>
+      </c>
+      <c r="K201">
+        <f t="shared" si="11"/>
+        <v>-10.736625514403313</v>
+      </c>
+    </row>
+    <row r="202" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H202">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>2.0100000000000011</v>
       </c>
       <c r="I202">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>10.945715226337468</v>
       </c>
-    </row>
-    <row r="203" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J202">
+        <f t="shared" si="10"/>
+        <v>-2.0100000000000011</v>
+      </c>
+      <c r="K202">
+        <f t="shared" si="11"/>
+        <v>-10.945715226337468</v>
+      </c>
+    </row>
+    <row r="203" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H203">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>2.0200000000000009</v>
       </c>
       <c r="I203">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>11.157688888888902</v>
       </c>
-    </row>
-    <row r="204" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J203">
+        <f t="shared" si="10"/>
+        <v>-2.0200000000000009</v>
+      </c>
+      <c r="K203">
+        <f t="shared" si="11"/>
+        <v>-11.157688888888902</v>
+      </c>
+    </row>
+    <row r="204" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H204">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>2.0300000000000007</v>
       </c>
       <c r="I204">
-        <f t="shared" ref="I204:I254" si="6">$K$4*(H204-$F$5)^3+$L$4</f>
+        <f t="shared" ref="I204:I254" si="12">$K$4*(H204-$F$5)^3+$L$4</f>
         <v>11.372566255144044</v>
       </c>
-    </row>
-    <row r="205" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J204">
+        <f t="shared" si="10"/>
+        <v>-2.0300000000000007</v>
+      </c>
+      <c r="K204">
+        <f t="shared" si="11"/>
+        <v>-11.372566255144044</v>
+      </c>
+    </row>
+    <row r="205" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H205">
-        <f t="shared" ref="H205:H254" si="7">H204+0.01</f>
+        <f t="shared" ref="H205:H254" si="13">H204+0.01</f>
         <v>2.0400000000000005</v>
       </c>
       <c r="I205">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>11.590367078189304</v>
       </c>
-    </row>
-    <row r="206" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J205">
+        <f t="shared" ref="J205:J254" si="14">J204-0.01</f>
+        <v>-2.0400000000000005</v>
+      </c>
+      <c r="K205">
+        <f t="shared" ref="K205:K254" si="15">-$K$4*(H205-$F$5)^3-$L$4</f>
+        <v>-11.590367078189304</v>
+      </c>
+    </row>
+    <row r="206" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H206">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>2.0500000000000003</v>
       </c>
       <c r="I206">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>11.811111111111112</v>
       </c>
-    </row>
-    <row r="207" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J206">
+        <f t="shared" si="14"/>
+        <v>-2.0500000000000003</v>
+      </c>
+      <c r="K206">
+        <f t="shared" si="15"/>
+        <v>-11.811111111111112</v>
+      </c>
+    </row>
+    <row r="207" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H207">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>2.06</v>
       </c>
       <c r="I207">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>12.03481810699588</v>
       </c>
-    </row>
-    <row r="208" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J207">
+        <f t="shared" si="14"/>
+        <v>-2.06</v>
+      </c>
+      <c r="K207">
+        <f t="shared" si="15"/>
+        <v>-12.03481810699588</v>
+      </c>
+    </row>
+    <row r="208" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H208">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>2.0699999999999998</v>
       </c>
       <c r="I208">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>12.261507818930033</v>
       </c>
-    </row>
-    <row r="209" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J208">
+        <f t="shared" si="14"/>
+        <v>-2.0699999999999998</v>
+      </c>
+      <c r="K208">
+        <f t="shared" si="15"/>
+        <v>-12.261507818930033</v>
+      </c>
+    </row>
+    <row r="209" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H209">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>2.0799999999999996</v>
       </c>
       <c r="I209">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>12.491199999999985</v>
       </c>
-    </row>
-    <row r="210" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J209">
+        <f t="shared" si="14"/>
+        <v>-2.0799999999999996</v>
+      </c>
+      <c r="K209">
+        <f t="shared" si="15"/>
+        <v>-12.491199999999985</v>
+      </c>
+    </row>
+    <row r="210" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H210">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>2.0899999999999994</v>
       </c>
       <c r="I210">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>12.723914403292161</v>
       </c>
-    </row>
-    <row r="211" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J210">
+        <f t="shared" si="14"/>
+        <v>-2.0899999999999994</v>
+      </c>
+      <c r="K210">
+        <f t="shared" si="15"/>
+        <v>-12.723914403292161</v>
+      </c>
+    </row>
+    <row r="211" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H211">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>2.0999999999999992</v>
       </c>
       <c r="I211">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>12.959670781892978</v>
       </c>
-    </row>
-    <row r="212" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J211">
+        <f t="shared" si="14"/>
+        <v>-2.0999999999999992</v>
+      </c>
+      <c r="K211">
+        <f t="shared" si="15"/>
+        <v>-12.959670781892978</v>
+      </c>
+    </row>
+    <row r="212" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H212">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>2.109999999999999</v>
       </c>
       <c r="I212">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>13.198488888888859</v>
       </c>
-    </row>
-    <row r="213" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J212">
+        <f t="shared" si="14"/>
+        <v>-2.109999999999999</v>
+      </c>
+      <c r="K212">
+        <f t="shared" si="15"/>
+        <v>-13.198488888888859</v>
+      </c>
+    </row>
+    <row r="213" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H213">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>2.1199999999999988</v>
       </c>
       <c r="I213">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>13.44038847736622</v>
       </c>
-    </row>
-    <row r="214" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J213">
+        <f t="shared" si="14"/>
+        <v>-2.1199999999999988</v>
+      </c>
+      <c r="K213">
+        <f t="shared" si="15"/>
+        <v>-13.44038847736622</v>
+      </c>
+    </row>
+    <row r="214" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H214">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>2.1299999999999986</v>
       </c>
       <c r="I214">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>13.685389300411481</v>
       </c>
-    </row>
-    <row r="215" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J214">
+        <f t="shared" si="14"/>
+        <v>-2.1299999999999986</v>
+      </c>
+      <c r="K214">
+        <f t="shared" si="15"/>
+        <v>-13.685389300411481</v>
+      </c>
+    </row>
+    <row r="215" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H215">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>2.1399999999999983</v>
       </c>
       <c r="I215">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>13.933511111111061</v>
       </c>
-    </row>
-    <row r="216" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J215">
+        <f t="shared" si="14"/>
+        <v>-2.1399999999999983</v>
+      </c>
+      <c r="K215">
+        <f t="shared" si="15"/>
+        <v>-13.933511111111061</v>
+      </c>
+    </row>
+    <row r="216" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H216">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>2.1499999999999981</v>
       </c>
       <c r="I216">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>14.184773662551386</v>
       </c>
-    </row>
-    <row r="217" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J216">
+        <f t="shared" si="14"/>
+        <v>-2.1499999999999981</v>
+      </c>
+      <c r="K216">
+        <f t="shared" si="15"/>
+        <v>-14.184773662551386</v>
+      </c>
+    </row>
+    <row r="217" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H217">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>2.1599999999999979</v>
       </c>
       <c r="I217">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>14.439196707818869</v>
       </c>
-    </row>
-    <row r="218" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J217">
+        <f t="shared" si="14"/>
+        <v>-2.1599999999999979</v>
+      </c>
+      <c r="K217">
+        <f t="shared" si="15"/>
+        <v>-14.439196707818869</v>
+      </c>
+    </row>
+    <row r="218" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H218">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>2.1699999999999977</v>
       </c>
       <c r="I218">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>14.696799999999934</v>
       </c>
-    </row>
-    <row r="219" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J218">
+        <f t="shared" si="14"/>
+        <v>-2.1699999999999977</v>
+      </c>
+      <c r="K218">
+        <f t="shared" si="15"/>
+        <v>-14.696799999999934</v>
+      </c>
+    </row>
+    <row r="219" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H219">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>2.1799999999999975</v>
       </c>
       <c r="I219">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>14.957603292180998</v>
       </c>
-    </row>
-    <row r="220" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J219">
+        <f t="shared" si="14"/>
+        <v>-2.1799999999999975</v>
+      </c>
+      <c r="K219">
+        <f t="shared" si="15"/>
+        <v>-14.957603292180998</v>
+      </c>
+    </row>
+    <row r="220" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H220">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>2.1899999999999973</v>
       </c>
       <c r="I220">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>15.22162633744848</v>
       </c>
-    </row>
-    <row r="221" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J220">
+        <f t="shared" si="14"/>
+        <v>-2.1899999999999973</v>
+      </c>
+      <c r="K220">
+        <f t="shared" si="15"/>
+        <v>-15.22162633744848</v>
+      </c>
+    </row>
+    <row r="221" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H221">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>2.1999999999999971</v>
       </c>
       <c r="I221">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>15.488888888888802</v>
       </c>
-    </row>
-    <row r="222" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J221">
+        <f t="shared" si="14"/>
+        <v>-2.1999999999999971</v>
+      </c>
+      <c r="K221">
+        <f t="shared" si="15"/>
+        <v>-15.488888888888802</v>
+      </c>
+    </row>
+    <row r="222" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H222">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>2.2099999999999969</v>
       </c>
       <c r="I222">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>15.759410699588384</v>
       </c>
-    </row>
-    <row r="223" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J222">
+        <f t="shared" si="14"/>
+        <v>-2.2099999999999969</v>
+      </c>
+      <c r="K222">
+        <f t="shared" si="15"/>
+        <v>-15.759410699588384</v>
+      </c>
+    </row>
+    <row r="223" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H223">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>2.2199999999999966</v>
       </c>
       <c r="I223">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>16.033211522633646</v>
       </c>
-    </row>
-    <row r="224" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J223">
+        <f t="shared" si="14"/>
+        <v>-2.2199999999999966</v>
+      </c>
+      <c r="K223">
+        <f t="shared" si="15"/>
+        <v>-16.033211522633646</v>
+      </c>
+    </row>
+    <row r="224" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H224">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>2.2299999999999964</v>
       </c>
       <c r="I224">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>16.310311111111005</v>
       </c>
-    </row>
-    <row r="225" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J224">
+        <f t="shared" si="14"/>
+        <v>-2.2299999999999964</v>
+      </c>
+      <c r="K224">
+        <f t="shared" si="15"/>
+        <v>-16.310311111111005</v>
+      </c>
+    </row>
+    <row r="225" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H225">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>2.2399999999999962</v>
       </c>
       <c r="I225">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>16.590729218106883</v>
       </c>
-    </row>
-    <row r="226" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J225">
+        <f t="shared" si="14"/>
+        <v>-2.2399999999999962</v>
+      </c>
+      <c r="K225">
+        <f t="shared" si="15"/>
+        <v>-16.590729218106883</v>
+      </c>
+    </row>
+    <row r="226" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H226">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>2.249999999999996</v>
       </c>
       <c r="I226">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>16.874485596707697</v>
       </c>
-    </row>
-    <row r="227" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J226">
+        <f t="shared" si="14"/>
+        <v>-2.249999999999996</v>
+      </c>
+      <c r="K226">
+        <f t="shared" si="15"/>
+        <v>-16.874485596707697</v>
+      </c>
+    </row>
+    <row r="227" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H227">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>2.2599999999999958</v>
       </c>
       <c r="I227">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>17.161599999999872</v>
       </c>
-    </row>
-    <row r="228" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J227">
+        <f t="shared" si="14"/>
+        <v>-2.2599999999999958</v>
+      </c>
+      <c r="K227">
+        <f t="shared" si="15"/>
+        <v>-17.161599999999872</v>
+      </c>
+    </row>
+    <row r="228" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H228">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>2.2699999999999956</v>
       </c>
       <c r="I228">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>17.452092181069823</v>
       </c>
-    </row>
-    <row r="229" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J228">
+        <f t="shared" si="14"/>
+        <v>-2.2699999999999956</v>
+      </c>
+      <c r="K228">
+        <f t="shared" si="15"/>
+        <v>-17.452092181069823</v>
+      </c>
+    </row>
+    <row r="229" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H229">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>2.2799999999999954</v>
       </c>
       <c r="I229">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>17.745981893003968</v>
       </c>
-    </row>
-    <row r="230" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J229">
+        <f t="shared" si="14"/>
+        <v>-2.2799999999999954</v>
+      </c>
+      <c r="K229">
+        <f t="shared" si="15"/>
+        <v>-17.745981893003968</v>
+      </c>
+    </row>
+    <row r="230" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H230">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>2.2899999999999952</v>
       </c>
       <c r="I230">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>18.043288888888735</v>
       </c>
-    </row>
-    <row r="231" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J230">
+        <f t="shared" si="14"/>
+        <v>-2.2899999999999952</v>
+      </c>
+      <c r="K230">
+        <f t="shared" si="15"/>
+        <v>-18.043288888888735</v>
+      </c>
+    </row>
+    <row r="231" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H231">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>2.2999999999999949</v>
       </c>
       <c r="I231">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>18.344032921810538</v>
       </c>
-    </row>
-    <row r="232" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J231">
+        <f t="shared" si="14"/>
+        <v>-2.2999999999999949</v>
+      </c>
+      <c r="K231">
+        <f t="shared" si="15"/>
+        <v>-18.344032921810538</v>
+      </c>
+    </row>
+    <row r="232" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H232">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>2.3099999999999947</v>
       </c>
       <c r="I232">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>18.648233744855798</v>
       </c>
-    </row>
-    <row r="233" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J232">
+        <f t="shared" si="14"/>
+        <v>-2.3099999999999947</v>
+      </c>
+      <c r="K232">
+        <f t="shared" si="15"/>
+        <v>-18.648233744855798</v>
+      </c>
+    </row>
+    <row r="233" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H233">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>2.3199999999999945</v>
       </c>
       <c r="I233">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>18.955911111110932</v>
       </c>
-    </row>
-    <row r="234" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J233">
+        <f t="shared" si="14"/>
+        <v>-2.3199999999999945</v>
+      </c>
+      <c r="K233">
+        <f t="shared" si="15"/>
+        <v>-18.955911111110932</v>
+      </c>
+    </row>
+    <row r="234" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H234">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>2.3299999999999943</v>
       </c>
       <c r="I234">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>19.267084773662365</v>
       </c>
-    </row>
-    <row r="235" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J234">
+        <f t="shared" si="14"/>
+        <v>-2.3299999999999943</v>
+      </c>
+      <c r="K234">
+        <f t="shared" si="15"/>
+        <v>-19.267084773662365</v>
+      </c>
+    </row>
+    <row r="235" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H235">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>2.3399999999999941</v>
       </c>
       <c r="I235">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>19.581774485596512</v>
       </c>
-    </row>
-    <row r="236" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J235">
+        <f t="shared" si="14"/>
+        <v>-2.3399999999999941</v>
+      </c>
+      <c r="K235">
+        <f t="shared" si="15"/>
+        <v>-19.581774485596512</v>
+      </c>
+    </row>
+    <row r="236" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H236">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>2.3499999999999939</v>
       </c>
       <c r="I236">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>19.899999999999793</v>
       </c>
-    </row>
-    <row r="237" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J236">
+        <f t="shared" si="14"/>
+        <v>-2.3499999999999939</v>
+      </c>
+      <c r="K236">
+        <f t="shared" si="15"/>
+        <v>-19.899999999999793</v>
+      </c>
+    </row>
+    <row r="237" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H237">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>2.3599999999999937</v>
       </c>
       <c r="I237">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>20.221781069958631</v>
       </c>
-    </row>
-    <row r="238" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J237">
+        <f t="shared" si="14"/>
+        <v>-2.3599999999999937</v>
+      </c>
+      <c r="K237">
+        <f t="shared" si="15"/>
+        <v>-20.221781069958631</v>
+      </c>
+    </row>
+    <row r="238" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H238">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>2.3699999999999934</v>
       </c>
       <c r="I238">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>20.547137448559447</v>
       </c>
-    </row>
-    <row r="239" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J238">
+        <f t="shared" si="14"/>
+        <v>-2.3699999999999934</v>
+      </c>
+      <c r="K238">
+        <f t="shared" si="15"/>
+        <v>-20.547137448559447</v>
+      </c>
+    </row>
+    <row r="239" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H239">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>2.3799999999999932</v>
       </c>
       <c r="I239">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>20.876088888888656</v>
       </c>
-    </row>
-    <row r="240" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J239">
+        <f t="shared" si="14"/>
+        <v>-2.3799999999999932</v>
+      </c>
+      <c r="K239">
+        <f t="shared" si="15"/>
+        <v>-20.876088888888656</v>
+      </c>
+    </row>
+    <row r="240" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H240">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>2.389999999999993</v>
       </c>
       <c r="I240">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>21.208655144032679</v>
       </c>
-    </row>
-    <row r="241" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J240">
+        <f t="shared" si="14"/>
+        <v>-2.389999999999993</v>
+      </c>
+      <c r="K240">
+        <f t="shared" si="15"/>
+        <v>-21.208655144032679</v>
+      </c>
+    </row>
+    <row r="241" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H241">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>2.3999999999999928</v>
       </c>
       <c r="I241">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>21.544855967077936</v>
       </c>
-    </row>
-    <row r="242" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J241">
+        <f t="shared" si="14"/>
+        <v>-2.3999999999999928</v>
+      </c>
+      <c r="K241">
+        <f t="shared" si="15"/>
+        <v>-21.544855967077936</v>
+      </c>
+    </row>
+    <row r="242" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H242">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>2.4099999999999926</v>
       </c>
       <c r="I242">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>21.884711111110846</v>
       </c>
-    </row>
-    <row r="243" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J242">
+        <f t="shared" si="14"/>
+        <v>-2.4099999999999926</v>
+      </c>
+      <c r="K242">
+        <f t="shared" si="15"/>
+        <v>-21.884711111110846</v>
+      </c>
+    </row>
+    <row r="243" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H243">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>2.4199999999999924</v>
       </c>
       <c r="I243">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>22.228240329217833</v>
       </c>
-    </row>
-    <row r="244" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J243">
+        <f t="shared" si="14"/>
+        <v>-2.4199999999999924</v>
+      </c>
+      <c r="K243">
+        <f t="shared" si="15"/>
+        <v>-22.228240329217833</v>
+      </c>
+    </row>
+    <row r="244" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H244">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>2.4299999999999922</v>
       </c>
       <c r="I244">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>22.575463374485313</v>
       </c>
-    </row>
-    <row r="245" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J244">
+        <f t="shared" si="14"/>
+        <v>-2.4299999999999922</v>
+      </c>
+      <c r="K244">
+        <f t="shared" si="15"/>
+        <v>-22.575463374485313</v>
+      </c>
+    </row>
+    <row r="245" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H245">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>2.439999999999992</v>
       </c>
       <c r="I245">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>22.926399999999706</v>
       </c>
-    </row>
-    <row r="246" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J245">
+        <f t="shared" si="14"/>
+        <v>-2.439999999999992</v>
+      </c>
+      <c r="K245">
+        <f t="shared" si="15"/>
+        <v>-22.926399999999706</v>
+      </c>
+    </row>
+    <row r="246" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H246">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>2.4499999999999917</v>
       </c>
       <c r="I246">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>23.281069958847432</v>
       </c>
-    </row>
-    <row r="247" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J246">
+        <f t="shared" si="14"/>
+        <v>-2.4499999999999917</v>
+      </c>
+      <c r="K246">
+        <f t="shared" si="15"/>
+        <v>-23.281069958847432</v>
+      </c>
+    </row>
+    <row r="247" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H247">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>2.4599999999999915</v>
       </c>
       <c r="I247">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>23.639493004114907</v>
       </c>
-    </row>
-    <row r="248" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J247">
+        <f t="shared" si="14"/>
+        <v>-2.4599999999999915</v>
+      </c>
+      <c r="K247">
+        <f t="shared" si="15"/>
+        <v>-23.639493004114907</v>
+      </c>
+    </row>
+    <row r="248" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H248">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>2.4699999999999913</v>
       </c>
       <c r="I248">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>24.001688888888562</v>
       </c>
-    </row>
-    <row r="249" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J248">
+        <f t="shared" si="14"/>
+        <v>-2.4699999999999913</v>
+      </c>
+      <c r="K248">
+        <f t="shared" si="15"/>
+        <v>-24.001688888888562</v>
+      </c>
+    </row>
+    <row r="249" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H249">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>2.4799999999999911</v>
       </c>
       <c r="I249">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>24.367677366254807</v>
       </c>
-    </row>
-    <row r="250" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J249">
+        <f t="shared" si="14"/>
+        <v>-2.4799999999999911</v>
+      </c>
+      <c r="K249">
+        <f t="shared" si="15"/>
+        <v>-24.367677366254807</v>
+      </c>
+    </row>
+    <row r="250" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H250">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>2.4899999999999909</v>
       </c>
       <c r="I250">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>24.737478189300063</v>
       </c>
-    </row>
-    <row r="251" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J250">
+        <f t="shared" si="14"/>
+        <v>-2.4899999999999909</v>
+      </c>
+      <c r="K250">
+        <f t="shared" si="15"/>
+        <v>-24.737478189300063</v>
+      </c>
+    </row>
+    <row r="251" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H251">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>2.4999999999999907</v>
       </c>
       <c r="I251">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>25.111111111110748</v>
       </c>
-    </row>
-    <row r="252" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J251">
+        <f t="shared" si="14"/>
+        <v>-2.4999999999999907</v>
+      </c>
+      <c r="K251">
+        <f t="shared" si="15"/>
+        <v>-25.111111111110748</v>
+      </c>
+    </row>
+    <row r="252" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H252">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>2.5099999999999905</v>
       </c>
       <c r="I252">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>25.488595884773289</v>
       </c>
-    </row>
-    <row r="253" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J252">
+        <f t="shared" si="14"/>
+        <v>-2.5099999999999905</v>
+      </c>
+      <c r="K252">
+        <f t="shared" si="15"/>
+        <v>-25.488595884773289</v>
+      </c>
+    </row>
+    <row r="253" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H253">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>2.5199999999999902</v>
       </c>
       <c r="I253">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>25.869952263374099</v>
       </c>
-    </row>
-    <row r="254" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="J253">
+        <f t="shared" si="14"/>
+        <v>-2.5199999999999902</v>
+      </c>
+      <c r="K253">
+        <f t="shared" si="15"/>
+        <v>-25.869952263374099</v>
+      </c>
+    </row>
+    <row r="254" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H254">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>2.52999999999999</v>
       </c>
       <c r="I254">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>26.255199999999601</v>
+      </c>
+      <c r="J254">
+        <f t="shared" si="14"/>
+        <v>-2.52999999999999</v>
+      </c>
+      <c r="K254">
+        <f t="shared" si="15"/>
+        <v>-26.255199999999601</v>
       </c>
     </row>
   </sheetData>
